--- a/data/hotels_by_city/Houston/Houston_shard_198.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_198.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="644">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56723-d106320-Reviews-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Drury-Inn-Suites-Houston-Sugar-Land.h64160.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1814 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r595716116-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>56723</t>
+  </si>
+  <si>
+    <t>106320</t>
+  </si>
+  <si>
+    <t>595716116</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>It's just what I needed.  Nothing more nothing less.</t>
+  </si>
+  <si>
+    <t>Good location close to the Sugar Land Smart Financial Center where we were attending a concert.   Happy Hour and breakfast food was underwhelming but the free food was life sustaining.  I was in room 212 and the floor of the shower was so slippery that I nearly fell - when I told the front desk at check out I was told to request a shower mat next time.  Lots of freeway noise prevented a good night sleep.  The room was comfortable and everything was very clean.  My main complaint was there was no USB port in the room.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r594045963-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>594045963</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>One week stay</t>
+  </si>
+  <si>
+    <t>No complaints with my stay at this hotel. The hotel is clean, the beds are comfy. Breakfast was served daily, good variety. It was to my surprise that they make popcorn at 3pm daily served with soft drinks and hot food in the evening. The staff is very friendly and helpful. Love the indoor and outdoor pool. I will return again when needed.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r591027917-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>591027917</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Very nice hotel with evening food and drink</t>
+  </si>
+  <si>
+    <t>It has been a long time since we stayed at Drury!  We were very happy with our room and the food! I would prefer that dogs not stay, but we only heard one,!  Evening snack was a meal!  Hot dogs with chili, baked potatoes. Chips salsa!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r584899154-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>584899154</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>Great Place to Stay!</t>
+  </si>
+  <si>
+    <t>This hotel is clean, well appointed, and the staff is helpful and friendly. A welcome surprise was an evening snack buffet. That was all I needed for my supper! The breakfast was also not your usual continental breakfast. It was varied, with both hot and cold items.I really liked the security there as i was traveling alone with just my dog. You have to use your key card to enter and exit the parking lot, and to access the side doors. My room was very clean, and the bed was comfortable. The hotel was quiet and just what we needed. The location is great; just off HI 59 in Sugar Land so easy to find.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>This hotel is clean, well appointed, and the staff is helpful and friendly. A welcome surprise was an evening snack buffet. That was all I needed for my supper! The breakfast was also not your usual continental breakfast. It was varied, with both hot and cold items.I really liked the security there as i was traveling alone with just my dog. You have to use your key card to enter and exit the parking lot, and to access the side doors. My room was very clean, and the bed was comfortable. The hotel was quiet and just what we needed. The location is great; just off HI 59 in Sugar Land so easy to find.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r584394350-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>584394350</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>My husband and I , along with our adult son, stayed here May 15 and May 16th. It was the only hotel in the area I could find with an actual 2 room suite with a door that closes for privacy. My adult son could stay up later watching TV and not bother us. It was very clean and beds were comfortable. My son slept on sofa bed and said it was a great nights sleep.They have breakfast in the morning and a nice hot selection for free in the evenings. And 3 free alcoholic drinks each night! We swam in pool which was a cool set up with half enclosed and half outside. Whirlpool tub was nice and clean. Everyone was super...but the shining star of this facility was the first person who greets you at the desk...RosieLee. She is a gem. So friendly, professional and called us by name at each encounter. Made sure we had sheets for the sofa bed. We felt like she treated us like family. Management better keep this woman here, she is 5 star wonderful!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>My husband and I , along with our adult son, stayed here May 15 and May 16th. It was the only hotel in the area I could find with an actual 2 room suite with a door that closes for privacy. My adult son could stay up later watching TV and not bother us. It was very clean and beds were comfortable. My son slept on sofa bed and said it was a great nights sleep.They have breakfast in the morning and a nice hot selection for free in the evenings. And 3 free alcoholic drinks each night! We swam in pool which was a cool set up with half enclosed and half outside. Whirlpool tub was nice and clean. Everyone was super...but the shining star of this facility was the first person who greets you at the desk...RosieLee. She is a gem. So friendly, professional and called us by name at each encounter. Made sure we had sheets for the sofa bed. We felt like she treated us like family. Management better keep this woman here, she is 5 star wonderful!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r583208235-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>583208235</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Great Dog Friendly Hotel</t>
+  </si>
+  <si>
+    <t>This was a  great place to stay! The free evening buffet and the breakfast were surprisingly good. The facility is attractive and well maintained. I felt very safe as it is surrounded by a high fence, and you have to use your key card to enter and exit the parking area and the side doors. I observed families who were enjoying the pool area. There were enough grassy areas where I could walk my little dog.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r573173411-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>573173411</t>
+  </si>
+  <si>
+    <t>04/13/2018</t>
+  </si>
+  <si>
+    <t>The extras do not cost extra....and they give you things others do not</t>
+  </si>
+  <si>
+    <t>Drury says the extras do not cost extra.  We had soda and popcorn available for an afternoon snack.  They even offer a light supper in the evenings all week with several options and drinks from 5:30 to 7:00.  These free extras were nice and saved us some money elsewhere.  You also have good breakfast choices daily too.  The room we had for 2 nights was comfortable, had a good shower, and plenty of pillows which I love.  The toiletry items like shampoo, etc are in refillable containers attached to the shower.  Bar soap is at the sink.  The location feels good although in a busy area.  There was no noise problem either.  There are laundry facilities for guests here. A restaurant is right next door if you want that. I thought to give a rating of 4 but after writing this and thinking how well the customer is treated here, I think they deserve a 5.  Thanks, Drury, for a very pleasant stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Drury says the extras do not cost extra.  We had soda and popcorn available for an afternoon snack.  They even offer a light supper in the evenings all week with several options and drinks from 5:30 to 7:00.  These free extras were nice and saved us some money elsewhere.  You also have good breakfast choices daily too.  The room we had for 2 nights was comfortable, had a good shower, and plenty of pillows which I love.  The toiletry items like shampoo, etc are in refillable containers attached to the shower.  Bar soap is at the sink.  The location feels good although in a busy area.  There was no noise problem either.  There are laundry facilities for guests here. A restaurant is right next door if you want that. I thought to give a rating of 4 but after writing this and thinking how well the customer is treated here, I think they deserve a 5.  Thanks, Drury, for a very pleasant stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r566660186-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>566660186</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>Super clean</t>
+  </si>
+  <si>
+    <t>We arrived at the hotel early and the lovely lady at check in allowed us to check in early.  As we made our way to our room, every employee greeted us cheerfully.  We decided to enjoy the pool before the crowds came and wow were we impressed.  Having stayed at many hotels, motels and resorts during our 40+ years of marriage, we have never experienced a cleaner pool and hot tub.  Absolutely no slime, mold or scum!  Every surface felt clean to the touch.  This was accomplished without any overwhelming use of chlorine.  Our room was a bit smaller than some Drury's , but spotlessly clean and comfortable.  The kickback  and breakfast food offerings had a good variety and the area was kept clean despite being very busy. The layout for the food area was inferior to other Drury's, but the cleanliness and friendliness of the staff made up for it. The location is super easy on and off the freeway with ample parking.  We would definitely choose this location again when in the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>We arrived at the hotel early and the lovely lady at check in allowed us to check in early.  As we made our way to our room, every employee greeted us cheerfully.  We decided to enjoy the pool before the crowds came and wow were we impressed.  Having stayed at many hotels, motels and resorts during our 40+ years of marriage, we have never experienced a cleaner pool and hot tub.  Absolutely no slime, mold or scum!  Every surface felt clean to the touch.  This was accomplished without any overwhelming use of chlorine.  Our room was a bit smaller than some Drury's , but spotlessly clean and comfortable.  The kickback  and breakfast food offerings had a good variety and the area was kept clean despite being very busy. The layout for the food area was inferior to other Drury's, but the cleanliness and friendliness of the staff made up for it. The location is super easy on and off the freeway with ample parking.  We would definitely choose this location again when in the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r564450196-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>564450196</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay! Awesome staff!</t>
+  </si>
+  <si>
+    <t>At the desk when checking in, I was greeted by Brittney who far exceeded my expectations. She was smiling, courteous and pleasant. What more could a person want at check in?. Many, many kudos to her. Other staff were also top notch,,,,Rudy, Elizabeth at check out and Ramona,,,at breakfast the next morning,,,,I hope I have the name right?? The evening free drinks and snacks were great. The room was great. There was plenty of space and it was clean. The location was great for what we wanted to do in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r545641063-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>545641063</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>Best staff ever!</t>
+  </si>
+  <si>
+    <t>We have been staying here since Hurricane Harvey displaced us (3 months now).  The hotel is clean and has a work-out room, pets allowed, washer/dryer, and free breakfast and dinner, as well as happy hour.  The food is not gourmet status, but with the variety they offer, you can always find something you like.  What I found MOST impressive was the STAFF!  They are always happy, always accommodating, and go over the top to make your stay enjoyable and comfortable.  All you have to do is ask!    I leave for work very early in the morning.  There is one staff member that watches me go out to my car to make sure I'm safe.  Can't find THAT everywhere!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>We have been staying here since Hurricane Harvey displaced us (3 months now).  The hotel is clean and has a work-out room, pets allowed, washer/dryer, and free breakfast and dinner, as well as happy hour.  The food is not gourmet status, but with the variety they offer, you can always find something you like.  What I found MOST impressive was the STAFF!  They are always happy, always accommodating, and go over the top to make your stay enjoyable and comfortable.  All you have to do is ask!    I leave for work very early in the morning.  There is one staff member that watches me go out to my car to make sure I'm safe.  Can't find THAT everywhere!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r525290736-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>525290736</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t>Impressive staff</t>
+  </si>
+  <si>
+    <t>We had booked the room about 1 month in advance, unfortunately hurricane Harvy hit the week before, and hotel was booked solid with evacuated Houstonites and FEMA folks as well, The staff here were still able to go above and beyond for their guest during a difficult and stressful situation. My hat is off to the management staff down to the housekeeping department. Very proud of you.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r523700953-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>523700953</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Always enjoy may stay at Drury, The 5:30 kickback with free drinks and full breakfast buffet is awesome. Facility is clean and well kept. This hotel also has a combination indoor/outdoor pool with Jacuzzi.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r502669063-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>502669063</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Affordable and pleasant stay</t>
+  </si>
+  <si>
+    <t>My wife and I only stayed here for one night but it was a good one. We arrived before the room was ready and the front desk attendant gave us a higher floor room for no additional charge. The bed was very comfortable and everything about the hotel was simple and solid. The breakfast in the morning was delicious, and the location of the hotel is really good. Right across the street from a good restaurant and right next door to a gas station before going on the highway makes things more convenient.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r501432066-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>501432066</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>6 night stay for work</t>
+  </si>
+  <si>
+    <t>Great staff, friendly and informative, recommended local BBQ, food was rotating menu with large breakfast too and non-alcoholic drinks offered all day... great point system for no maid. Local Mexican restaurant across the street nice but overpriced. Parking was very close and free.Pool was nice, inside and out. Exercise area had limited free weights and mainly treadmills. Better than nothing. Overall a great place to stay with extra perks.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r499441900-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>499441900</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>A-1 experience!!</t>
+  </si>
+  <si>
+    <t>We loved staying here, my husband and I went to a concert at the Smart Financial Center, while the kids and grandma stayed behind to enjoy the indoor/ out/door pool, so no matter the weather there will obviously always be something to do. Every thing is close by we ate at the Hacienda and played at Main Event. The hotel personel was very friendly and the hot/cold breakfast buffet (scrambled eggs, sausage, potatoes)  was delicious not to mention the pastries and make yourself waffles. The hotel is quiet, and clean, we will definetly stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r493410845-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>493410845</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t>always satisfies</t>
+  </si>
+  <si>
+    <t>As with all Drury hotels, you know what you get upon arrival. decent food (dinner snacks until 7 pm), a nice little pool and hot tub and a great breakfast. This particular inn is conveniently located just outside Houston. The staff is friendly and rooms clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r493369823-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>493369823</t>
+  </si>
+  <si>
+    <t>Quick Houston trip</t>
+  </si>
+  <si>
+    <t>The hotel is right off the SW Freeway.  Nice area with restaurants and (4) malls just in the Sugar Land area within a 3 mile radius.  Friendly staff.  Loved the complimentary breakfast, which included scrambled eggs, sausage, hash browns (cut up potato not like waffle house), biscuits and muffins.  Loved the complimentary soft drinks, Pepsi products.  Room was nice and the beds were comfortable.  Had one issue with the t.v and they had it fixed within 30 minutes.  Ikea was about 20-25 minutes away and the Galleria was about the same.  Would highly recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r492849584-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>492849584</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Wonderful vacation accommodations.</t>
+  </si>
+  <si>
+    <t>The whole experience was more then we expected. Breakfast was great and evening kickback was always new and delicious. The complimentary drinks were a nice surprise. Clean and friendly. Staff went above and beyond to ensure we had a nice stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r466844571-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>466844571</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Under Adult Supervision?... But I am An Adult</t>
+  </si>
+  <si>
+    <t>Reserved two hotel rooms this weekend, a little costly but wanted to treat my daughter for Spring Break. When making reservations by phone, the manager kept repeating over and over (more than 10 times) "No parties!  I will be doing a Head count in the Kickback, at the pool everywhere!"   And my goodness he did! Even when we checked in at the desk he gave his warning yet again.  He stood over us at breakfast he stood over us at Kickback. It was like being in a prison. Never once did he crack a smile or say welcome, thank you. I am not sure if it was because of Spring break or what but I am over 50yrs old and was going there to relax with family. We did not feel comfortable. Made us feel guilty for even being there.  The rooms were nice although the trash cans had no liners.  The guests were very friendly. The pool area was nice and we enjoyed that.  The manager may need to be a little more inviting.  Brush up on his Hospitality skills a bit.  I really would like feedback on this, i would like to speak with someone about this.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Reserved two hotel rooms this weekend, a little costly but wanted to treat my daughter for Spring Break. When making reservations by phone, the manager kept repeating over and over (more than 10 times) "No parties!  I will be doing a Head count in the Kickback, at the pool everywhere!"   And my goodness he did! Even when we checked in at the desk he gave his warning yet again.  He stood over us at breakfast he stood over us at Kickback. It was like being in a prison. Never once did he crack a smile or say welcome, thank you. I am not sure if it was because of Spring break or what but I am over 50yrs old and was going there to relax with family. We did not feel comfortable. Made us feel guilty for even being there.  The rooms were nice although the trash cans had no liners.  The guests were very friendly. The pool area was nice and we enjoyed that.  The manager may need to be a little more inviting.  Brush up on his Hospitality skills a bit.  I really would like feedback on this, i would like to speak with someone about this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r466603173-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>466603173</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family </t>
+  </si>
+  <si>
+    <t>Really enjoyed free amenities..kickback with good and 3 limit drinks were great..also rooms were good ..only thing my family and i didn't enjoy was the worker..the man that work front desk watched too much no privacy getting food or eating it..if he should bring it down a bit it would be wonderful.also didn't like location..i like to see shopiping malls near me.otherwise great hotel</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r459435949-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>459435949</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We lived in Sugar Land and decided to visit our former home.  Drury Inn was to perfect location to visit friends and the sites of Houston.  Being next to Pappasito's was a huge perk for me, love that place!  The breakfast was very nice, there is free dinner and drinks and we loved the indoor/outdoor pool and hot tub.  I would totally stay here again.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r454385188-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>454385188</t>
+  </si>
+  <si>
+    <t>01/23/2017</t>
+  </si>
+  <si>
+    <t>Only one draw back in my eyes..</t>
+  </si>
+  <si>
+    <t>This Hotel is the best of both worlds. Full of lots of extra perks like free breakfast, free dinner and drinks, free popcorn and drinks all on certain hours of the day. The staff is awesome. Quite clean hotel. But the only thing I've gotten annoyed with is the lack of something good to watch. We are here on a business &amp; house hunting trip. So being gone all day, it's nice to get to the room, whine down and (TRY) to find a good movie on TV.. This is where they are lacking. The past few nights I've had to channel surf over and over just to find something that wasn't News, Spanish, or Episode this and thats... They only have about 48 channels to choose from and the majority are what I stated above. They really could benefit from giving the option to at least rent a movie or something along those lines. With all the technology these days. They could really use a better Cable package.. I may just have to go buy a cable for my laptop or Ipad and see about streaming through that onto the TV. It's just annoying to have to go through all that. PLEASE, get better movie options..MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>DruryHotels, General Manager at Drury Inn &amp; Suites Houston Sugar Land, responded to this reviewResponded January 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2017</t>
+  </si>
+  <si>
+    <t>This Hotel is the best of both worlds. Full of lots of extra perks like free breakfast, free dinner and drinks, free popcorn and drinks all on certain hours of the day. The staff is awesome. Quite clean hotel. But the only thing I've gotten annoyed with is the lack of something good to watch. We are here on a business &amp; house hunting trip. So being gone all day, it's nice to get to the room, whine down and (TRY) to find a good movie on TV.. This is where they are lacking. The past few nights I've had to channel surf over and over just to find something that wasn't News, Spanish, or Episode this and thats... They only have about 48 channels to choose from and the majority are what I stated above. They really could benefit from giving the option to at least rent a movie or something along those lines. With all the technology these days. They could really use a better Cable package.. I may just have to go buy a cable for my laptop or Ipad and see about streaming through that onto the TV. It's just annoying to have to go through all that. PLEASE, get better movie options..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r453789782-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>453789782</t>
+  </si>
+  <si>
+    <t>01/21/2017</t>
+  </si>
+  <si>
+    <t>Felt like home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was greeted by Smiling Robert at the front desk, checked in and made us feel right at home! Our hotel manager Mark was FABULOUS!  He stopped to chat with every customer in the dining area and even helped bus the tables!  Will definitely seek out this hotel next time we are in Sugarland for an event at the Smart Financial Center! </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r448685314-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>448685314</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>Nice stay except for the dogs</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel at least 5 times in the last 2 years.  We generally like this hotel, it is clean, quite and has a good location.  The extra amenities like the breakfast, snacks, dinner and bar drinks are all free.  We feel that the Drury hotels are a great value for all that you receive and also love that the pool has both indoor and outdoor sections so that it is useful all year long.  What I didn't like was that our last visit, there were several customers with dogs.  We had never noticed this before but this time so many dogs were there; we were barked at anytime we went to the elevators, one customer was walking 3 dogs down the hallway and one customer had a small dog that got very aggressive at our 3 year old son who wasn't even near him and was just going down the hall.  The dogs owner had to pick him up until we got to the elevator.  That concerned us because a small child like ours, would be frightened by this.  I would normally give 5 stars but this new dog policy doesn't seem good.  I mean 3 dogs in one hotel room; that seems excessive.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel at least 5 times in the last 2 years.  We generally like this hotel, it is clean, quite and has a good location.  The extra amenities like the breakfast, snacks, dinner and bar drinks are all free.  We feel that the Drury hotels are a great value for all that you receive and also love that the pool has both indoor and outdoor sections so that it is useful all year long.  What I didn't like was that our last visit, there were several customers with dogs.  We had never noticed this before but this time so many dogs were there; we were barked at anytime we went to the elevators, one customer was walking 3 dogs down the hallway and one customer had a small dog that got very aggressive at our 3 year old son who wasn't even near him and was just going down the hall.  The dogs owner had to pick him up until we got to the elevator.  That concerned us because a small child like ours, would be frightened by this.  I would normally give 5 stars but this new dog policy doesn't seem good.  I mean 3 dogs in one hotel room; that seems excessive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r442824943-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>442824943</t>
+  </si>
+  <si>
+    <t>12/08/2016</t>
+  </si>
+  <si>
+    <t>Great Place To Stay</t>
+  </si>
+  <si>
+    <t>We stayed at this location for 2 days until our furniture arrived at our new home. Drury Inn has very nice and updated spaces and rooms. We checked in the evening of December 1st. Our desk agent was very informative. He provided us with details regarding the evening gathering in which they serve food and drinks (you get a 3 drink minimum on a card for each night).  Plus they serve items like baked potatoes, chicken fingers, pasta, nachos, etc. it's a nice set up. Our room was large. Very spacious! The bathroom could be larger but it was fine. The sofa was clean and comfy. The bed was very nice and comfortable. Great nights of sleep. In the morning, they offer a variety of breakfast items. There are nearby restaurants if you want to eat out. Pappasitos is right across the street. The hotel has a little convenience area where you can purchase items and there is also a gas station right behind Drury. Also want to mention Kesha. She was very sweet and gave me information regarding places in the Sugar Land and other nearby areas since we just relocated here. I appreciated all the staff and their willingness to go over and beyond. They treated us like guests coming into their home. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this location for 2 days until our furniture arrived at our new home. Drury Inn has very nice and updated spaces and rooms. We checked in the evening of December 1st. Our desk agent was very informative. He provided us with details regarding the evening gathering in which they serve food and drinks (you get a 3 drink minimum on a card for each night).  Plus they serve items like baked potatoes, chicken fingers, pasta, nachos, etc. it's a nice set up. Our room was large. Very spacious! The bathroom could be larger but it was fine. The sofa was clean and comfy. The bed was very nice and comfortable. Great nights of sleep. In the morning, they offer a variety of breakfast items. There are nearby restaurants if you want to eat out. Pappasitos is right across the street. The hotel has a little convenience area where you can purchase items and there is also a gas station right behind Drury. Also want to mention Kesha. She was very sweet and gave me information regarding places in the Sugar Land and other nearby areas since we just relocated here. I appreciated all the staff and their willingness to go over and beyond. They treated us like guests coming into their home. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r433273166-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>433273166</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>On the state listing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My companion selected the hotel from our state approved list, and low  and behold- a great stay. Nice rooms, good work out room, breakfast and evening snacks were good. The hotel was centrally located to our visit, making for ease of travel. Try it, you will like it. </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r420360366-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>420360366</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>Very good fo the price</t>
+  </si>
+  <si>
+    <t>The overall service was good, my only complaint was the food selection offered. It seemed to not be fresh, but I would say this is the only hotel that I've been to that offers hot meals in the afternoon, so I guess I shouldn't complain. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>DruryHotels, General Manager at Drury Inn &amp; Suites Houston Sugar Land, responded to this reviewResponded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2016</t>
+  </si>
+  <si>
+    <t>The overall service was good, my only complaint was the food selection offered. It seemed to not be fresh, but I would say this is the only hotel that I've been to that offers hot meals in the afternoon, so I guess I shouldn't complain. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r399171165-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>399171165</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>This hotel was amazing from staff to room Apperance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exceptional hotel would definetly recommend to others from the location to the employees in the hotel they definetly have an A plus rating they will definetly make your stay a wonderful and great experience </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r382638455-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>382638455</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel and Location</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed here, spur of the moment, to extend our trip. The location is perfect. It is close to many great restaurants and shops. Our room was clean and the bed and linens were very comfortable - the towels weren't so great.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r377949464-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>377949464</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean, comfortable, and courteous </t>
+  </si>
+  <si>
+    <t>Stayed the weekend with my family and friends at the Sugarland Drury Inn while in town for a softball tournament. Room was bigger than expected, king room with sofa sleeper provided ample space for 2 adults, 2 teens, and 1 small dog. Staff was friendly and helpful every time we saw them.  They were extremely pleasant and enjoyable to talk to. Rooms and hotel were tidy &amp; clean and had no odors. Surprised that our room had 2 AC units, one for bedroom and one for living/sofa area. This was really nice since kids wanted room warmer than adults. Both units worked well. Breakfast had many options, hot items were hot and fresh and it was easy to accommodate specific dietary needs. Evening "kickbacks" snacks was enough for a full meal.  Rooms were well insulated. Hotel was full, holiday weekend with multiple sports events meant lots of rambunctious kids in the halls, but you couldn't hear anything from inside your room. I was impressed and very happy about this! Dog friendly, with clear rules/ expectations for pets. Pet relief area easy to find at rear of building. Hotel next to a shady sidewalk for longer walk/run with your dog. Many restaurants within walking distance, including Pappasitos right next door. Easy driving access to SLGSA softball fields. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Stayed the weekend with my family and friends at the Sugarland Drury Inn while in town for a softball tournament. Room was bigger than expected, king room with sofa sleeper provided ample space for 2 adults, 2 teens, and 1 small dog. Staff was friendly and helpful every time we saw them.  They were extremely pleasant and enjoyable to talk to. Rooms and hotel were tidy &amp; clean and had no odors. Surprised that our room had 2 AC units, one for bedroom and one for living/sofa area. This was really nice since kids wanted room warmer than adults. Both units worked well. Breakfast had many options, hot items were hot and fresh and it was easy to accommodate specific dietary needs. Evening "kickbacks" snacks was enough for a full meal.  Rooms were well insulated. Hotel was full, holiday weekend with multiple sports events meant lots of rambunctious kids in the halls, but you couldn't hear anything from inside your room. I was impressed and very happy about this! Dog friendly, with clear rules/ expectations for pets. Pet relief area easy to find at rear of building. Hotel next to a shady sidewalk for longer walk/run with your dog. Many restaurants within walking distance, including Pappasitos right next door. Easy driving access to SLGSA softball fields. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r367617655-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>367617655</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Quite nice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice rooms. Nice beds. Plenty of pillows. Indoor and outdoor pool. They serve breakfast and dinner, although it's not the best thing to eat around here. There are restaurants within waking distance; very good location. Nice little work out room as well. </t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r366189888-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>366189888</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>Delightful staff and property!</t>
+  </si>
+  <si>
+    <t>The property was immaculate and pet friendly although you would never know it. My pup loved it. I liked the rules that are in place regarding pets , makes it nicer for everyone. Loved all the staff here. They greeted you and engaged you in conversation. Very helpful at all times. The happy hour was great and the evening snacks (loved those chili dogs and soup). Christopher was a nice little mixologist(he likes to be called that says his coworkers) and his Chrissasion cocktail with tequila was the bomb. I did find them to be a bit stingy with the wine pour, you barely got a swallow and a half in those tiny glasses, but that is my only complaint. The breakfast was doable. They had nice bagels and sausage, didn't care much for the eggs, but I am not a breakfast person anyway.Ramona who worked when Christopher was off was a dream and we enjoyed our daily encounters with her as we did Mark, one of the managers. We just moved to the Sugar Land area and stayed while our house was being readied. If all the people of Texas are this nice, we are in a dang fine place!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>The property was immaculate and pet friendly although you would never know it. My pup loved it. I liked the rules that are in place regarding pets , makes it nicer for everyone. Loved all the staff here. They greeted you and engaged you in conversation. Very helpful at all times. The happy hour was great and the evening snacks (loved those chili dogs and soup). Christopher was a nice little mixologist(he likes to be called that says his coworkers) and his Chrissasion cocktail with tequila was the bomb. I did find them to be a bit stingy with the wine pour, you barely got a swallow and a half in those tiny glasses, but that is my only complaint. The breakfast was doable. They had nice bagels and sausage, didn't care much for the eggs, but I am not a breakfast person anyway.Ramona who worked when Christopher was off was a dream and we enjoyed our daily encounters with her as we did Mark, one of the managers. We just moved to the Sugar Land area and stayed while our house was being readied. If all the people of Texas are this nice, we are in a dang fine place!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r365734218-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>365734218</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Much More to Offer Than Expected</t>
+  </si>
+  <si>
+    <t>So much more than I expected, with a free nice hot breakfast buffet and then a so called "Kickback" at night that you could basically make a full meal out of, and the free drinks definitely were a nice touch after a long day. They also had popcorn in the afternoon which made a movie day in my room much more cozy. Clean rooms and beautifully decorated. I also loved the beds, as I have trouble sleeping in new environments but their mattress was super comfortable. They are next door to Pappasitos one of the best Tex-Mexican chains in Houston. The staff was incredibly friendly, knowledgeable and helpful. I really loved staying here. If your not looking for a full service hotel but still want a nice hotel with some bang for your buck, I recommend the Drury!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>So much more than I expected, with a free nice hot breakfast buffet and then a so called "Kickback" at night that you could basically make a full meal out of, and the free drinks definitely were a nice touch after a long day. They also had popcorn in the afternoon which made a movie day in my room much more cozy. Clean rooms and beautifully decorated. I also loved the beds, as I have trouble sleeping in new environments but their mattress was super comfortable. They are next door to Pappasitos one of the best Tex-Mexican chains in Houston. The staff was incredibly friendly, knowledgeable and helpful. I really loved staying here. If your not looking for a full service hotel but still want a nice hotel with some bang for your buck, I recommend the Drury!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r360512629-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>360512629</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doesn't look fabulous on the outside but rooms and amenities deliver. Service and staff have been consistent every time and one of the reasons I have made three straight bookings here for business trips.Free happy hour and breakfast are nice value adds for the price.  The hotel is also right next door to Papasitos, one of the best Tex mex restaurants in the state.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r360504824-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>360504824</t>
+  </si>
+  <si>
+    <t>High end atmosphere will reasonable price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean, comfortable rooms, service was great, pool was nice and didn't break the bank. I would recommend to people that like comfort but not high price luxury. They also offer military discount for thone troops who like to travel. </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r359522681-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>359522681</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t>Spring break</t>
+  </si>
+  <si>
+    <t>We booked this hotel because there is a shortage of Hotel/Motels with indoor pools down south, and I have always had great stays at Drury Inns. We stayed over the weekend and while this is mostly geared for business people the staff was exemplary. Full breakfast and dinner plus drinks (although someone must've called in sick on Saturday night, even though the staff did double duty you could tell it wasn't the usual fare). I would definitely recommend this place to anyone, especially with kids. You can't beat the price either.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r348263192-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>348263192</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>I recommend this hotel...Staff is great the food and ambience was wonderful and had a great time there..Quiet atmosphere With beautiful furnishings Love this place will Visit again in the near future..</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r344270631-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>344270631</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>Great Stay at Drury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had never been to that area of Texas, I was by my self but felt very secure due to the staff and their professionalism. Great Stay Everyone was very pleasant and helpful. Security was great. Food was wonderful and the happy hour is a great idea after driving 4 hrs I needed a nice drink. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r343962857-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>343962857</t>
+  </si>
+  <si>
+    <t>01/31/2016</t>
+  </si>
+  <si>
+    <t>Could have been better</t>
+  </si>
+  <si>
+    <t>Staying in the Drury inn wasn't a bad experience but it did see rather dated. All staff were friendly and polite but the rooms seems like a blast from the past.Breakfast was traditional American food that kept you going thoughout the day. I wouldn't want to stay here for a holiday as it's not as flashy as others but for business it was perfect.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r327712279-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>327712279</t>
+  </si>
+  <si>
+    <t>11/18/2015</t>
+  </si>
+  <si>
+    <t>Not that good</t>
+  </si>
+  <si>
+    <t>I was here for two nights for business and was not impressed with the room. It smelled like it was a smokers room, very musty. The thermostat kept changing from cool to heat on its own. That was very annoying during the night. However, the staff here was very friendly and went out of their way to help. They offer food and free drinks at night which is a plus. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>DruryHotels, Manager at Drury Inn &amp; Suites Houston Sugar Land, responded to this reviewResponded December 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2015</t>
+  </si>
+  <si>
+    <t>I was here for two nights for business and was not impressed with the room. It smelled like it was a smokers room, very musty. The thermostat kept changing from cool to heat on its own. That was very annoying during the night. However, the staff here was very friendly and went out of their way to help. They offer food and free drinks at night which is a plus. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r326725160-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>326725160</t>
+  </si>
+  <si>
+    <t>11/14/2015</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>The rooms were very nice from the front desk to the house maids. They were always asking if there was anything they could do to make our stay better. The food at breakfast and at night was very good. It was a very enjoyable trip.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r326594589-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>326594589</t>
+  </si>
+  <si>
+    <t>11/13/2015</t>
+  </si>
+  <si>
+    <t>Always a great experience!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very last minute overnight stay in downtown Houston, but I knew that the Sugarland area is only a twenty minute commute away. Thankfully they had open rooms so I booked without hesitation because I expect a clean, safe environment for a fair rate. As always, Drury's staff is top-notch and the rooms are always clean and spacious enough. From the late night munchies( popcorn and soda) to a great breakfast, you can't go wrong! The internet is always up to par and streaming some Netflix while away from home was no problem! I always look for Drury wherever I stay, and this one didn't let me down! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r321285713-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>321285713</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>Very pleasant experience</t>
+  </si>
+  <si>
+    <t>Never expected that this hotel is far better in service  than some of the 5 star hotels. Starting this time of my stay at Drury Inn, I will make it a point to stay in this place than any other hotels. Very satisfied. Keep up that excellent service!</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r321037798-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>321037798</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Great clean, remodeled hotel</t>
+  </si>
+  <si>
+    <t>Had a great stay here.  The hotel has just been remodeled (actually just finishing up in the next two weeks).  Very comfortable beds.  Clean rooms.  Breakfast was very nice and evening hot food is offered.  Front desk clerks were all very friendly and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r317525045-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>317525045</t>
+  </si>
+  <si>
+    <t>10/10/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasant stay </t>
+  </si>
+  <si>
+    <t>There was construction in the kitchen area and parking lot but the staff were friendly and helpful. The room was clean and newly decorated. The breakfast and happy hour were a little unorganized because of the construction but still not bad. The pool was excellent freshly filled, clean and just warm enough to be refreshing.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r308968794-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>308968794</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>No complaints. As advertised.</t>
+  </si>
+  <si>
+    <t>Getting to the hotel was not hard. This was my first time staying in Drury Inn. The lobby  was clean. I got there after 5 and saw the free hot food and drinks. Plenty of people did take advantage of the offerings. The room was good. I had a double room. The bathroom was large like a bathroom you would see in a house. That was a surprise. There were plenty of electrical sockets in the room. The wifi worked with no problems. They were doing some renovations while I was there. So you heard some construction noise. But it was not too loud. And I was gone most of the time.The breakfast was absolutely great. Hot and cold food was provided. Nothing was lacking. Biscuits, white gravy,sausage links. Waffle maker. I don't think anyone left hungry. Myself included.Eating places. You have to do a little traveling if you want to see a variety of food places. You're about  seven minutes away from the mall and some shopping strips. There is a jack in the box around the corner though. Overall I had no complaints. Maybe next I'll opt for a suite just for the space. The place served it's purpose.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Getting to the hotel was not hard. This was my first time staying in Drury Inn. The lobby  was clean. I got there after 5 and saw the free hot food and drinks. Plenty of people did take advantage of the offerings. The room was good. I had a double room. The bathroom was large like a bathroom you would see in a house. That was a surprise. There were plenty of electrical sockets in the room. The wifi worked with no problems. They were doing some renovations while I was there. So you heard some construction noise. But it was not too loud. And I was gone most of the time.The breakfast was absolutely great. Hot and cold food was provided. Nothing was lacking. Biscuits, white gravy,sausage links. Waffle maker. I don't think anyone left hungry. Myself included.Eating places. You have to do a little traveling if you want to see a variety of food places. You're about  seven minutes away from the mall and some shopping strips. There is a jack in the box around the corner though. Overall I had no complaints. Maybe next I'll opt for a suite just for the space. The place served it's purpose.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r303887899-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>303887899</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>Best Hotel Ever! Super Customer Service! Free Kick Off Dinner &amp; Breakfast!</t>
+  </si>
+  <si>
+    <t>I think this Drury Hotel Experience was fantastic. To begin with, the hotelrate was a great value especially with the AAA  Automobile Club discount.The hotel staff were very friendly and helpful. The rooms were well appointedand pristine (I am very picky about cleanliness &amp; I could not find one spot ofdirt). My husband and I loved the FREE Kickoff dinner which had great foodas well as 3 cocktails or wine apiece. That was 6 FREE glasses of wine for2 people. The Kickoff Dinner meant a lot to us because we were very tiredafter driving for 12 hours and did not feel like driving around the city lookingfor a restaurant. The FREE Breakfast was very good also. I might also mention that the furniture &amp; bed in the room were very nice (not cheap &amp; chintzy).ALL IN ALL a wonderful experience &amp; great value.MoreShow less</t>
+  </si>
+  <si>
+    <t>I think this Drury Hotel Experience was fantastic. To begin with, the hotelrate was a great value especially with the AAA  Automobile Club discount.The hotel staff were very friendly and helpful. The rooms were well appointedand pristine (I am very picky about cleanliness &amp; I could not find one spot ofdirt). My husband and I loved the FREE Kickoff dinner which had great foodas well as 3 cocktails or wine apiece. That was 6 FREE glasses of wine for2 people. The Kickoff Dinner meant a lot to us because we were very tiredafter driving for 12 hours and did not feel like driving around the city lookingfor a restaurant. The FREE Breakfast was very good also. I might also mention that the furniture &amp; bed in the room were very nice (not cheap &amp; chintzy).ALL IN ALL a wonderful experience &amp; great value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r302670862-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>302670862</t>
+  </si>
+  <si>
+    <t>08/23/2015</t>
+  </si>
+  <si>
+    <t>Heartwarming welcome!</t>
+  </si>
+  <si>
+    <t>I and 13 friends of mine stayed there overnight right after landing in the U.S. for the first time. The entire staff was so sweet and kind to us, they joined us all at the couches/chairs in the hall to talk about the city, to check if there was anything they could help us with, they suggested things for us to do and were ready to help!There's a mall 10 minutes away from the hotel, the wifi is quite good and the rooms are comfortable. The breakfast buffet is very nice and I had a great time there. I'd definitely go back. Great option for an affordable price.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r290261058-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>290261058</t>
+  </si>
+  <si>
+    <t>07/18/2015</t>
+  </si>
+  <si>
+    <t>Good rate, nice room and good location</t>
+  </si>
+  <si>
+    <t>The dryer inn in sugarland is in a great location, the room was good and clean with good amenities, breakfast was ok lots to chose from and included in the room fee. We arrived late and we're pleased to get food to buy from the guest pantry. Nice experience. I would stay there again.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r288976542-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>288976542</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Good time</t>
+  </si>
+  <si>
+    <t>Decent rooms and service. Free hot breakfast and dinner with free cocktails. Clean hotel and staff are very nice and friendly. My husband was on a business trip there and we went to keep him company. Kids had a lot of fun. Enjoyed the pool and hot tub, small but okay for the purpose.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r288897630-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>288897630</t>
+  </si>
+  <si>
+    <t>Nice place, great location, horrible wi-fi</t>
+  </si>
+  <si>
+    <t>Would consider staying here again!!  The hotel is in the perfect location for getting around Sugar Land-Houston.  They offer a cocktail hour with free drinks and eats from 5:30pm-7:00pm.  Breakfast was presented nicely but they kept running out of coffee.  The room was very nice but we could not get a signal for the free wi-fi unless we were at the end of the hallway near the elevator (lobby side).  This did not bother us too much but if you are traveling for business not being able to work in the room would be inconvenient.  The front desk said they are aware of the problem and are working to boost the signal.  Our room was on the 3rd floor.  There is a GREAT restaurant directly across the road.MoreShow less</t>
+  </si>
+  <si>
+    <t>Would consider staying here again!!  The hotel is in the perfect location for getting around Sugar Land-Houston.  They offer a cocktail hour with free drinks and eats from 5:30pm-7:00pm.  Breakfast was presented nicely but they kept running out of coffee.  The room was very nice but we could not get a signal for the free wi-fi unless we were at the end of the hallway near the elevator (lobby side).  This did not bother us too much but if you are traveling for business not being able to work in the room would be inconvenient.  The front desk said they are aware of the problem and are working to boost the signal.  Our room was on the 3rd floor.  There is a GREAT restaurant directly across the road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r281960025-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>281960025</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>My first stay at Drury Inn &amp; Suites was in 1997 for a family reunion. Since then I have truly enjoyed my stay when I go to San Antonio, I have also taken family and friends to stay with me and have recommended to friends when they go to San Antonio. I enjoy the breakfast and Dinner meals, but on the alcoholic beverages, I would like to recommend to also have diet sodas to mix with liquor due to being diabetic.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r274916633-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>274916633</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Ants in Room and Rude Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed May 2015. Ants were all around the frig/microwave countertop and on top of the dresser along w/the beds.  Came home w/several bug bites.  Informed front desk but no other rooms avail.  Also, manager was very rude/pushy.  Made us feel very uncomfortable during breakfast and evening snack. Watched every move waiting on correcting us.  Felt he was stalking us.  Won't return ever to this location based on the above comments.   </t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r274017477-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>274017477</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t>Great hotel for the price</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for a business meeting.  It was easy to get to off the Hwy, and about 35 minutes from Hobby.  The room was clean , bed was comfortable and the WiFi worked fine.  But the best thing about this hotel was the service.  Every staff member from the front desk, to the kitchen servers up to the manager were fantastic.  They helped fix a couple of issues I had, and were always friendly and courteous.  They also had a nice "manager's" party in the evening and a decent free breakfast in the morning. Best of all, it is simple walk to Pappasito's Cantina.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r270469002-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>270469002</t>
+  </si>
+  <si>
+    <t>05/06/2015</t>
+  </si>
+  <si>
+    <t>No problems</t>
+  </si>
+  <si>
+    <t>easy access off of freeway, great check in and then free food and drinks are awesomePool area nice, hot tub wasn't the best Breakfast was fineThe GM was around in the morning and the evening reception, nice man and very helpfulRooms were big and only issue was the wifi wasn't the nestWill look for other Drury hotels when travelling...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r264535606-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>264535606</t>
+  </si>
+  <si>
+    <t>04/08/2015</t>
+  </si>
+  <si>
+    <t>Slightly Dated Common Areas</t>
+  </si>
+  <si>
+    <t>One night stay was comfortable and met our needs, but the common areas are showing their age.  We would stay again, but hotel could use a light refurbishment to compete with many of the newer hotels in the area.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r263610849-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>263610849</t>
+  </si>
+  <si>
+    <t>04/04/2015</t>
+  </si>
+  <si>
+    <t>Just a great place to stay........</t>
+  </si>
+  <si>
+    <t>I was coming to Sugarland for business, dreading my stay at the Drury, but I couldnt have been more mistaken about that!The staff here was extremely friendly, I wish I had grabbed more names to mention, but I do remember Chris at the cocktail hour and his great drink creation.  The room was clean, modern, bed was awesome!  Had a mini fridge and a microwave too!There is a manager reception for 90mins at 530p every weekday, free drinks!  They have a shuttle service and FREE WIFI!Free full breakfast every morning, make your own waffles, sausage, eggs, toast, bagels, cereal, fruit, you name it!Just a really nice place to hang your hat for a night or 5!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was coming to Sugarland for business, dreading my stay at the Drury, but I couldnt have been more mistaken about that!The staff here was extremely friendly, I wish I had grabbed more names to mention, but I do remember Chris at the cocktail hour and his great drink creation.  The room was clean, modern, bed was awesome!  Had a mini fridge and a microwave too!There is a manager reception for 90mins at 530p every weekday, free drinks!  They have a shuttle service and FREE WIFI!Free full breakfast every morning, make your own waffles, sausage, eggs, toast, bagels, cereal, fruit, you name it!Just a really nice place to hang your hat for a night or 5!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r251689671-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>251689671</t>
+  </si>
+  <si>
+    <t>01/29/2015</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>From check in to checkout, was easy.  The place was clean and comfortable. Staff was helpful.  Our trip to and from was easy access on and off freeway, which help since we didn't know the area.  The event was 5 minutes away, that was awesome.  We would stay here again.  The place was secure and that was important to us.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r249350882-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>249350882</t>
+  </si>
+  <si>
+    <t>01/14/2015</t>
+  </si>
+  <si>
+    <t>Average Hotel</t>
+  </si>
+  <si>
+    <t>Hotel staff members were very nice, especially the gentleman supervising the dining area. Food served in the evenings was very good. Food available was hot dogs and chips, macaroni and cheese, chicken strips, baked potatoes, salad, and carrot and celery sticks. The breakfast items that I attempted to eat were very dry, i.e. bagel, donut, muffin. Nice touches in room were, bright lighting, soap and shampoo wall dispensers in the shower instead of little bottles, and closet mirrored doors had panel portions that included magnification. The negatives for our room were, tiny ants at the bathroom sink area, and the dresser and sink would have been much nicer at a taller height. Something in the refrigerator compartment had an annoying constant rattle. The biggest negative was the comfort of the bed. It was hard and made our backs ache and hurt. It is definitely time for the hotel to get a mattress update/upgrade.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel staff members were very nice, especially the gentleman supervising the dining area. Food served in the evenings was very good. Food available was hot dogs and chips, macaroni and cheese, chicken strips, baked potatoes, salad, and carrot and celery sticks. The breakfast items that I attempted to eat were very dry, i.e. bagel, donut, muffin. Nice touches in room were, bright lighting, soap and shampoo wall dispensers in the shower instead of little bottles, and closet mirrored doors had panel portions that included magnification. The negatives for our room were, tiny ants at the bathroom sink area, and the dresser and sink would have been much nicer at a taller height. Something in the refrigerator compartment had an annoying constant rattle. The biggest negative was the comfort of the bed. It was hard and made our backs ache and hurt. It is definitely time for the hotel to get a mattress update/upgrade.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r243249178-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>243249178</t>
+  </si>
+  <si>
+    <t>12/06/2014</t>
+  </si>
+  <si>
+    <t>Time well spent</t>
+  </si>
+  <si>
+    <t>The Inn had a lot to offer. Good breakfast , Good supper and drinks, The staff was the best. Enjoyed the stay . Would stay there again and again. They even had personal items in their little store. Hotel was in a good area of town.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r241169875-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>241169875</t>
+  </si>
+  <si>
+    <t>11/23/2014</t>
+  </si>
+  <si>
+    <t>Trip to Drury</t>
+  </si>
+  <si>
+    <t>I recommend staying at this special hotel the staff supervisor and manager are very professional and know how to make your trip comfortableI have been staying at the Drury several years and would never want another hotel</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r239696795-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>239696795</t>
+  </si>
+  <si>
+    <t>11/13/2014</t>
+  </si>
+  <si>
+    <t>Great place; Drury never disappoints</t>
+  </si>
+  <si>
+    <t>We stayed here for one night as we were picking up a new puppy in the Sugar Land area!  Wow...the staff was extremely helpful, getting us into a room that would make caring for the new guy as easy as possible....a room with a LOT of tile flooring and easy access to the outside.
+After coming back that evening with our new guy, a number of the staff took time out to see him when they saw us outside with him.  It's obvious they're comfortable with their pet policy and look forward to 4-footed visitors as well as the 2-footed ones.
+We did breakfast in shifts, so as not to leave the pup alone.  This particular day, there was a huge high school contingent on site, so we just brought back breakfast to the room.  Even with such a huge group all needing food at the same time, the staff kept the buffet hot and full. 
+I would like to compliment Brittney on the Drury staff.  She checked us in at night but was also working the buffet the next morning, plus we encountered her one of the times we took our pup outside.  Always busy, she nonetheless was always cheerful and smiling.  Way to go!
+Pappadeaux Seafood is right next door (walking distance).  Would highly recommend this Drury and would not hesitate to stay here again.  It was a little bit difficult for us to navigate to the property,...We stayed here for one night as we were picking up a new puppy in the Sugar Land area!  Wow...the staff was extremely helpful, getting us into a room that would make caring for the new guy as easy as possible....a room with a LOT of tile flooring and easy access to the outside.After coming back that evening with our new guy, a number of the staff took time out to see him when they saw us outside with him.  It's obvious they're comfortable with their pet policy and look forward to 4-footed visitors as well as the 2-footed ones.We did breakfast in shifts, so as not to leave the pup alone.  This particular day, there was a huge high school contingent on site, so we just brought back breakfast to the room.  Even with such a huge group all needing food at the same time, the staff kept the buffet hot and full. I would like to compliment Brittney on the Drury staff.  She checked us in at night but was also working the buffet the next morning, plus we encountered her one of the times we took our pup outside.  Always busy, she nonetheless was always cheerful and smiling.  Way to go!Pappadeaux Seafood is right next door (walking distance).  Would highly recommend this Drury and would not hesitate to stay here again.  It was a little bit difficult for us to navigate to the property, even with GPS, but that's more a function of us being unfamiliar with the Houston highways.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for one night as we were picking up a new puppy in the Sugar Land area!  Wow...the staff was extremely helpful, getting us into a room that would make caring for the new guy as easy as possible....a room with a LOT of tile flooring and easy access to the outside.
+After coming back that evening with our new guy, a number of the staff took time out to see him when they saw us outside with him.  It's obvious they're comfortable with their pet policy and look forward to 4-footed visitors as well as the 2-footed ones.
+We did breakfast in shifts, so as not to leave the pup alone.  This particular day, there was a huge high school contingent on site, so we just brought back breakfast to the room.  Even with such a huge group all needing food at the same time, the staff kept the buffet hot and full. 
+I would like to compliment Brittney on the Drury staff.  She checked us in at night but was also working the buffet the next morning, plus we encountered her one of the times we took our pup outside.  Always busy, she nonetheless was always cheerful and smiling.  Way to go!
+Pappadeaux Seafood is right next door (walking distance).  Would highly recommend this Drury and would not hesitate to stay here again.  It was a little bit difficult for us to navigate to the property,...We stayed here for one night as we were picking up a new puppy in the Sugar Land area!  Wow...the staff was extremely helpful, getting us into a room that would make caring for the new guy as easy as possible....a room with a LOT of tile flooring and easy access to the outside.After coming back that evening with our new guy, a number of the staff took time out to see him when they saw us outside with him.  It's obvious they're comfortable with their pet policy and look forward to 4-footed visitors as well as the 2-footed ones.We did breakfast in shifts, so as not to leave the pup alone.  This particular day, there was a huge high school contingent on site, so we just brought back breakfast to the room.  Even with such a huge group all needing food at the same time, the staff kept the buffet hot and full. I would like to compliment Brittney on the Drury staff.  She checked us in at night but was also working the buffet the next morning, plus we encountered her one of the times we took our pup outside.  Always busy, she nonetheless was always cheerful and smiling.  Way to go!Pappadeaux Seafood is right next door (walking distance).  Would highly recommend this Drury and would not hesitate to stay here again.  It was a little bit difficult for us to navigate to the property, even with GPS, but that's more a function of us being unfamiliar with the Houston highways.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r239005395-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>239005395</t>
+  </si>
+  <si>
+    <t>11/09/2014</t>
+  </si>
+  <si>
+    <t>Very Happy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrival was extremely professional and friendly.  Rooms were clean and functional. Lobby area was unique and welcoming. Amenities and Special Services were great! Location was perfect.  Staff was on the ball. Would highly recommend this location. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r235463326-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>235463326</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>So nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh the suite was so comfortable.  So clean. Spacious. The breakfast was so spot on for every ones diet. Manager present. So accommodating. You could not get a better value. Really!!! Water in the room would definitely take them over the top. Replace mattress in room 501. Too mushy. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r230882383-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>230882383</t>
+  </si>
+  <si>
+    <t>09/25/2014</t>
+  </si>
+  <si>
+    <t>Fantastic Customer Service!</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel 10 nights over a two week period while in the process of relocating out of state. I selected the Drury Inn on the suggestion of friends who have stayed at other Drury locations in Texas and Michigan, and because the Sugar Land location was less than a mile away from my office.Ramona and Robert were the two team members I interacted with most often. They were both extremely kind and cheerful and always took the time to ask about my day and if there was anything I needed. Every other team member I came into contact with (housekeeping, front desk, food services) were also very kind and professional. The high level of customer service truly exceeded my expectations. My room and the hotel grounds were very clean. The breakfast menu was a good mix of grab and go and traditional items. Great way to start the day! I also enjoyed the evening kickback. It was a nice way to unwind and enjoy a bite to eat after a long day.  I didn't use the pool or workout room so I can’t speak much about either area. In addition to being close to my office, the hotel is also close to shopping and restaurants. When I return to the area for a visit I will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel 10 nights over a two week period while in the process of relocating out of state. I selected the Drury Inn on the suggestion of friends who have stayed at other Drury locations in Texas and Michigan, and because the Sugar Land location was less than a mile away from my office.Ramona and Robert were the two team members I interacted with most often. They were both extremely kind and cheerful and always took the time to ask about my day and if there was anything I needed. Every other team member I came into contact with (housekeeping, front desk, food services) were also very kind and professional. The high level of customer service truly exceeded my expectations. My room and the hotel grounds were very clean. The breakfast menu was a good mix of grab and go and traditional items. Great way to start the day! I also enjoyed the evening kickback. It was a nice way to unwind and enjoy a bite to eat after a long day.  I didn't use the pool or workout room so I can’t speak much about either area. In addition to being close to my office, the hotel is also close to shopping and restaurants. When I return to the area for a visit I will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r230150032-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>230150032</t>
+  </si>
+  <si>
+    <t>09/21/2014</t>
+  </si>
+  <si>
+    <t>Very good option for a visit to Sugar Land area</t>
+  </si>
+  <si>
+    <t>We had never stayed in a Drury Inn before and had to house 8 family members from all over the country.  The hotel was great.  Staff is quite good -- as others have remarked.  I spent four nights and had no complaints.  Room was clean.  Breakfast was very well presented, tables were clean, etc.  Biscuits with gravy quite good; the waffle iron; good coffee.  Hotel is a bit older, but well maintained.  My only moment was regret in checking in at 11pm and feeling like I was at a lockup -- but I soon appreciated the devotion to security:  the front desk is right by the front door -- and the security is tight.  We appreciated that.  Beds good.  Overall a win.  We had one guest find one bug one day -- and the hotel was immediately into overdrive checking the room over.  Sleep quality was quite good -- quiet hotel.The area is good -- Berryhill Baja Grill is on the other side of the Southwest Freeway, lots of retail nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had never stayed in a Drury Inn before and had to house 8 family members from all over the country.  The hotel was great.  Staff is quite good -- as others have remarked.  I spent four nights and had no complaints.  Room was clean.  Breakfast was very well presented, tables were clean, etc.  Biscuits with gravy quite good; the waffle iron; good coffee.  Hotel is a bit older, but well maintained.  My only moment was regret in checking in at 11pm and feeling like I was at a lockup -- but I soon appreciated the devotion to security:  the front desk is right by the front door -- and the security is tight.  We appreciated that.  Beds good.  Overall a win.  We had one guest find one bug one day -- and the hotel was immediately into overdrive checking the room over.  Sleep quality was quite good -- quiet hotel.The area is good -- Berryhill Baja Grill is on the other side of the Southwest Freeway, lots of retail nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r219773399-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>219773399</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>great location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location of hotel. Restaurants, theaters,&amp; malls are within minutes of drive time.  . Peaceful &amp; relaxing room. Staff was very polite, knowledgeable of area, respectful, &amp; courteous. The rooms are usual size but, always wish they were a little bigger.   </t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r219094906-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>219094906</t>
+  </si>
+  <si>
+    <t>08/02/2014</t>
+  </si>
+  <si>
+    <t>Customer satisfaction is #1 at this property.</t>
+  </si>
+  <si>
+    <t>I don't know where to begin: Mark, the manager, was there and greeting his customers every evening with a smile. He always asked how our stay was going and if there was anything else we needed to improve our stay.Ramona was always cheerful and smiling, again she would ask how we were doing and if there was anything else she could get us.Robert too was cheerful and asking how our stay was and if there was anything he could do to improve our stay.All in all I would recommend that, if you find yourself in the Sugar Land Texas area, you utilize this Drury Inn.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r218560965-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>218560965</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>The whole family enjoyed the friendly, very accommodating staff, "kick back" happy hour perk, and nice hot breakfast. The pool was a little small, but the kids and I really liked that it was half indoors and half outdoors. The value was hands down the best! This will definitely not be my last time!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r206791995-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>206791995</t>
+  </si>
+  <si>
+    <t>05/23/2014</t>
+  </si>
+  <si>
+    <t>Musty room, average hotel.</t>
+  </si>
+  <si>
+    <t>The staff was friendly, that is the best thing I have to say. The room was not dirty, but it did smell musty and the chemicals the maid sprayed did not really help. The parking arrangement is unusual to say the least (anyone can drive in, but you must have a room key to get out; when you key "malfunctions" and you have to run through the rain to get it reprogrammed, the system seems inefficient to say the least. The free breakfast was awful, but that is pretty much normal in this day and age. So all in all, not horrible, but certainly not recommended.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r204515228-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>204515228</t>
+  </si>
+  <si>
+    <t>05/07/2014</t>
+  </si>
+  <si>
+    <t>Very nice Drury Inn property</t>
+  </si>
+  <si>
+    <t>Located out by itself in the country it is a beautiful property. Typical Drury Inn affair with a free breakfast and supper. Free soft drinks and popcorn all day and free drinks at supper. Plus they have a liberal pet policy . This and LQ are my destinations because of my traveling pets.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r198626523-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>198626523</t>
+  </si>
+  <si>
+    <t>03/25/2014</t>
+  </si>
+  <si>
+    <t>Favorable rate, nice room, friendly Ramona managing breakfast area.</t>
+  </si>
+  <si>
+    <t>Our rate was very fair for the area...edge of Houston.  Breakfast was well done but what made this hotel worth mentioning was Ramona a lovely, friendly lady who greeted us at the breakfast area.No complaints at all.  Well done to Drury Inn.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r184765631-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>184765631</t>
+  </si>
+  <si>
+    <t>11/15/2013</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>If you don"t appreciate a clean and quiet room with an A/C that works, proximity to shopping and a wide variety of quality restaurants, a very good breakfast as compared to other chain hotels, and free cocktails and snacks in the early evening, then this is not your desired hotel.  Refreshing!  I will absolutely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r184031873-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>184031873</t>
+  </si>
+  <si>
+    <t>11/08/2013</t>
+  </si>
+  <si>
+    <t>Dreary Inn</t>
+  </si>
+  <si>
+    <t>Second time at this place as its the choice of the company.  I think its chosen for price and location.  To be honest, its ok and does what it should.  Good rooms and good bed but its all a bit dated.  The offer of kickback food and drink seems to appeal to lots of people and they pile their plates up hgh but its not for this guy.  Breakfast is adequate but not attractive but do me a favor and use proper plates and cutlery rather than polystyrene.  If you want value for money stay here.  If you want a bit more, go somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>DruryHotels, General Manager at Drury Inn &amp; Suites Houston Sugar Land, responded to this reviewResponded November 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2013</t>
+  </si>
+  <si>
+    <t>Second time at this place as its the choice of the company.  I think its chosen for price and location.  To be honest, its ok and does what it should.  Good rooms and good bed but its all a bit dated.  The offer of kickback food and drink seems to appeal to lots of people and they pile their plates up hgh but its not for this guy.  Breakfast is adequate but not attractive but do me a favor and use proper plates and cutlery rather than polystyrene.  If you want value for money stay here.  If you want a bit more, go somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r180844644-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>180844644</t>
+  </si>
+  <si>
+    <t>10/13/2013</t>
+  </si>
+  <si>
+    <t>Remodeled and Looks Like New</t>
+  </si>
+  <si>
+    <t>This is a great hotel. It has been recently remodeled and the rooms and lobby are fresh and clean. The beds are very comfortable, separate room for the vanity and toilet, and a large flat screen TV. They served a hot breakfast of scrambled eggs, sausage, bacon, biscuits and gravy, hot oatmeal, toast, muffins, yogurt, and bananas.  Coupon rate is $69.00. An increase from $59.00 on my last visit, but I'll stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r161655156-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>161655156</t>
+  </si>
+  <si>
+    <t>05/23/2013</t>
+  </si>
+  <si>
+    <t>Customer service &amp; free food/drinks!</t>
+  </si>
+  <si>
+    <t>Everyone from the front desk to the bar is so friendly and helpful. The hotel is a little older but comfy, and has everything you need. Nice happy hour with 3 free drinks and good variety of food. Ill be back!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r160399591-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>160399591</t>
+  </si>
+  <si>
+    <t>05/11/2013</t>
+  </si>
+  <si>
+    <t>Most Excellent Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel. Friendly and efficient staff, clean, comfortable and QUIET rooms. "Kickback" offers 3 drinks. The hot food was pasta and meatballs, baked potatoes, hot dogs. Salad, nachos. Much good stuff. Breakfast was scrambled eggs, sausage, waffles, biscuits and gravy...  My only complaint (pay attention, Chuck Drury!) is thatYou need tortillas at breakfast. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r158208999-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>158208999</t>
+  </si>
+  <si>
+    <t>04/19/2013</t>
+  </si>
+  <si>
+    <t>Very comfortable.</t>
+  </si>
+  <si>
+    <t>Was here on business. The room was spacious and has a nice flat screen. Love the option of having the fan on AC run continous. Good hot breakfast and nice "kick back" in the evening. They have fresh popcorn at all hours. The pool is warm and the hot tub was so nice every evening. Even though it is gated parking, there was one of our guys that had his truck broken into. So take all valuables to the room.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r152397572-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>152397572</t>
+  </si>
+  <si>
+    <t>02/17/2013</t>
+  </si>
+  <si>
+    <t>Very nice property</t>
+  </si>
+  <si>
+    <t>The front desk staff were exceptional.  The hotel was extremely clean and the cleaning staff were very pleasant.  The amenities are too numerous to write here but all were available as advertised.  There were also a number of very good restaurants within easy driving distance.  Overall, I found this to be a nice hotel.  I have had on occasion the opportunity to stay at a Drury Hotel and have never been disappointed.  This hotel was no exception.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r152287234-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>152287234</t>
+  </si>
+  <si>
+    <t>02/16/2013</t>
+  </si>
+  <si>
+    <t>Falsely Accused</t>
+  </si>
+  <si>
+    <t>After a long hard day in the city I decided not to drive the 2 hours back home. I decided I would find a room in a nice area where I would not have to worry about anyone kicking the door in on me while I rested, only to be robbed by the staff at Drury Inn, in Sugar Land, TX. My credit card was charged an extra $700 dollars. When I contacted Drury Inn I was told by management that I had taken the T.V. out of the room on the fourth floor. The clerk stated that they do not have camera's in the hallways, by the elevators, the stairs or in the parking lot. So their is no surveillance  what so ever at this hotel. I know realize I am more safer in hood.MoreShow less</t>
+  </si>
+  <si>
+    <t>After a long hard day in the city I decided not to drive the 2 hours back home. I decided I would find a room in a nice area where I would not have to worry about anyone kicking the door in on me while I rested, only to be robbed by the staff at Drury Inn, in Sugar Land, TX. My credit card was charged an extra $700 dollars. When I contacted Drury Inn I was told by management that I had taken the T.V. out of the room on the fourth floor. The clerk stated that they do not have camera's in the hallways, by the elevators, the stairs or in the parking lot. So their is no surveillance  what so ever at this hotel. I know realize I am more safer in hood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r152191530-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>152191530</t>
+  </si>
+  <si>
+    <t>02/15/2013</t>
+  </si>
+  <si>
+    <t>Clean hotel with good amenities</t>
+  </si>
+  <si>
+    <t>I stayed here two nights for business trip.  The rooms are a good size and include a coffee maker, fridge, and microwave. The blankets are thin for my personal preference, but are adequate. Instead of the little shampoo bottle, the bathroom contains refillable shower amenities.  This is much more environmentally friendly that all those little plastic bottles. There is a full hot breakfast available and the dining area is spacious and well-kept. In the afternoon, hor d'oeuvres and wine are offered.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r144614175-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>144614175</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Accomodate to Please</t>
+  </si>
+  <si>
+    <t>WoW! That is what I am still saying about this Drury Inn. Upon checking in I was told there wasn't a King Room available even though I had requested one upon reserving the room.The Guest Service Manager at the front desk told me to wait a few moments as He checked for something suitable for me. he then gave me a Key, Checked me in and then told me to check the room out and give Him a call with my opinion.I went to the room and found that he had given me a 2 room , beautiful King Bed for no extra cost to me.That is what Hotels should be about in taking care of their clients.besides, the  free food at the evening reception and tasty Hot breakfast were more positive aspects to my visit there.I would again like to thank Glynn Arkadie for his having made my stay a very pleasant experience. His enthusiasm for pleasing his clients as well as Hid professional attitude toward his job makes me want to stay there again every time my travel takes me through Sugar Land, Tx.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>WoW! That is what I am still saying about this Drury Inn. Upon checking in I was told there wasn't a King Room available even though I had requested one upon reserving the room.The Guest Service Manager at the front desk told me to wait a few moments as He checked for something suitable for me. he then gave me a Key, Checked me in and then told me to check the room out and give Him a call with my opinion.I went to the room and found that he had given me a 2 room , beautiful King Bed for no extra cost to me.That is what Hotels should be about in taking care of their clients.besides, the  free food at the evening reception and tasty Hot breakfast were more positive aspects to my visit there.I would again like to thank Glynn Arkadie for his having made my stay a very pleasant experience. His enthusiasm for pleasing his clients as well as Hid professional attitude toward his job makes me want to stay there again every time my travel takes me through Sugar Land, Tx.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r141941964-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>141941964</t>
+  </si>
+  <si>
+    <t>10/03/2012</t>
+  </si>
+  <si>
+    <t>My Home away from home</t>
+  </si>
+  <si>
+    <t>This hotel is the absolute best! The staff is exceptional and friendly.  The amenities are GREAT and the food is awesome! When I want to get away from my hectic everyday life I go south to Houston/Sugar Land, TX. You are alway greeted with a friendly smile and a warm feeling of "wow, I'm home again"! I pretend this is my health and fitness getaway.  I enjoy the pool and hot tub, the fitness facility and yes, the buffets every morning and every evening! You really don't need anything else.  The rooms are alway clean and comfortable. When you are broke, this is your vacation spot! I love Drury Inn &amp; Suites!Carolyn HorneMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>This hotel is the absolute best! The staff is exceptional and friendly.  The amenities are GREAT and the food is awesome! When I want to get away from my hectic everyday life I go south to Houston/Sugar Land, TX. You are alway greeted with a friendly smile and a warm feeling of "wow, I'm home again"! I pretend this is my health and fitness getaway.  I enjoy the pool and hot tub, the fitness facility and yes, the buffets every morning and every evening! You really don't need anything else.  The rooms are alway clean and comfortable. When you are broke, this is your vacation spot! I love Drury Inn &amp; Suites!Carolyn HorneMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r135541925-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>135541925</t>
+  </si>
+  <si>
+    <t>07/27/2012</t>
+  </si>
+  <si>
+    <t>Friendly &amp; Clean</t>
+  </si>
+  <si>
+    <t>We stayed here 7 days. It is clean and NO bedbugs. Entire staff are extremely friendly! Pool is a bit odd. Small and is divided in half that makes part of pool inside and part outside. Kids still enjoyed it and I enjoyed the hot tub. Breakfast was the same everyday- waffles, french toast, sausage, biscuiys and gravy. Scrambled eggs, yogurt, apples,banannas, toast, muffins, donuts, juice, cereal, milk. 3:00 is free popcorn and pepsi products! 5:30-7:30 was a rotating buffet and 4 free mixed drinks per person. Dinner was baked potatoes, hot dogs, nachoes.... Amoung other quick fix items. It can save u some money if u dont want to go out. Room was 2 doubles with room to include pack n play. The beds wiggled everytime you moved. It took awhile to get used to that. Our room had a small icebox that rarely got cooler than room temp. Not cool enough to store milk. Asked that it be replaced and after next day it still wasnt done. 2nd night our toliet clogged and it wasnt until the 3rd day that I asked for a plunger and did it myself. Someone did leave a card the next day saying it was repaired.Right off highway. No noise was heard. Have security exits. $1.50/washer $1.50/dryer $1 soap.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>We stayed here 7 days. It is clean and NO bedbugs. Entire staff are extremely friendly! Pool is a bit odd. Small and is divided in half that makes part of pool inside and part outside. Kids still enjoyed it and I enjoyed the hot tub. Breakfast was the same everyday- waffles, french toast, sausage, biscuiys and gravy. Scrambled eggs, yogurt, apples,banannas, toast, muffins, donuts, juice, cereal, milk. 3:00 is free popcorn and pepsi products! 5:30-7:30 was a rotating buffet and 4 free mixed drinks per person. Dinner was baked potatoes, hot dogs, nachoes.... Amoung other quick fix items. It can save u some money if u dont want to go out. Room was 2 doubles with room to include pack n play. The beds wiggled everytime you moved. It took awhile to get used to that. Our room had a small icebox that rarely got cooler than room temp. Not cool enough to store milk. Asked that it be replaced and after next day it still wasnt done. 2nd night our toliet clogged and it wasnt until the 3rd day that I asked for a plunger and did it myself. Someone did leave a card the next day saying it was repaired.Right off highway. No noise was heard. Have security exits. $1.50/washer $1.50/dryer $1 soap.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r127081603-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>127081603</t>
+  </si>
+  <si>
+    <t>04/01/2012</t>
+  </si>
+  <si>
+    <t>Outstanding stay for the price</t>
+  </si>
+  <si>
+    <t>Arrived around 6:30 for a one night stay before a cruise out of Gavelston. We were greeted by a friendly staff. Access to all rooms are from interior. There is no elevator as we had read previous reviews. We asked for a first floor room and was granted our request. The rooms were very clean. We have stayed at many hotels. This one met our needs. Great stay for a great price. Would recommend it and stay there again!</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r126716684-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>126716684</t>
+  </si>
+  <si>
+    <t>03/26/2012</t>
+  </si>
+  <si>
+    <t>This hotel provided a nice comfortable stay for a couple of days. Chris and Glenn were very accommodating  during the stay.The two were professional  and no matter how busy the lobby got they managed to help me with information about the area.The hotel was smaller then some of the most recent stays with the chain.My particular room was also extremely smaller. The printer didn't work and unlike the other hotels the food was put away by 7:01pm. I would say that,because Houston has more options for accommendations the hotel is content with a  3 star rating. If you are in town for a couple of nights,this is a nice clean facilty.This location is overpriced for the quality.MoreShow less</t>
+  </si>
+  <si>
+    <t>DruryHotels, General Manager at Drury Inn &amp; Suites Houston Sugar Land, responded to this reviewResponded April 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2012</t>
+  </si>
+  <si>
+    <t>This hotel provided a nice comfortable stay for a couple of days. Chris and Glenn were very accommodating  during the stay.The two were professional  and no matter how busy the lobby got they managed to help me with information about the area.The hotel was smaller then some of the most recent stays with the chain.My particular room was also extremely smaller. The printer didn't work and unlike the other hotels the food was put away by 7:01pm. I would say that,because Houston has more options for accommendations the hotel is content with a  3 star rating. If you are in town for a couple of nights,this is a nice clean facilty.This location is overpriced for the quality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r125894953-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>125894953</t>
+  </si>
+  <si>
+    <t>03/10/2012</t>
+  </si>
+  <si>
+    <t>Comfort and Convienance</t>
+  </si>
+  <si>
+    <t>This hotel is tucked away from all the frazzle of life, but it is right accross the stree from a Pappasitos so you never worry about parking or driving tipsy. You are also just a short drive from the Sugarland square excitement. It is a great deal and the people are awesome.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r121082794-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>121082794</t>
+  </si>
+  <si>
+    <t>11/27/2011</t>
+  </si>
+  <si>
+    <t>A Refreshing Experience</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel for the Thanksgiving holidays.  After multiple flight delays and canceled flight,we arrived at the hotel a day late but with our reservation intact with no charge for the lost night.  It was refreshing to walk into this hotel with the warm and friendly welcome we received and the lively atmosphere.  The hotel lobby and the room were clean.  The hotel was very quiet at night.  That in and of itself was the best part.  The hotel is in a great location:  just off highway 59, close to the Sam Houston Tollway and lots of shopping nearby.  I would definitely recommend this hotel to anyone, whether it be a family, couple or single person.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel for the Thanksgiving holidays.  After multiple flight delays and canceled flight,we arrived at the hotel a day late but with our reservation intact with no charge for the lost night.  It was refreshing to walk into this hotel with the warm and friendly welcome we received and the lively atmosphere.  The hotel lobby and the room were clean.  The hotel was very quiet at night.  That in and of itself was the best part.  The hotel is in a great location:  just off highway 59, close to the Sam Houston Tollway and lots of shopping nearby.  I would definitely recommend this hotel to anyone, whether it be a family, couple or single person.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r119993727-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>119993727</t>
+  </si>
+  <si>
+    <t>10/31/2011</t>
+  </si>
+  <si>
+    <t>Very comfortable stay</t>
+  </si>
+  <si>
+    <t>My husband and I spent 3 nights at the Drury Inn last week. The room was furnished with a king size bed, sofa, desk chair, nice TV, clock radio and very adequate lighting. There was a charging station at the desk, and the room was spacious and extremely clean. The bathroom was a nice size, also extremely clean. The bathtub/shower was wonderful and included a dispenser for shampoo and conditioner and a hair blower.  We loved the size of the Inn--not too big, so we could quickly get to the lobby, the small gym or the indoor/outdoor pool. It was wonderful and convenient to have access to the free breakfast buffet which included scrambled eggs, bagels, cereal, oatmeal, muffins, orange, juices, coffee/tea. Easy access to highway, and the wonderful Town Center and mall are a 10 minute drive. The only downside which I could think of was the bed, which was pretty uncomfortable if you are not used to a soft mattress. The hotel would be wise to replace the mattresses and pillows, which were soft and lumpy. Our friends also had the same complaint. New mattresses, and this hotel gets 5 stars!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>My husband and I spent 3 nights at the Drury Inn last week. The room was furnished with a king size bed, sofa, desk chair, nice TV, clock radio and very adequate lighting. There was a charging station at the desk, and the room was spacious and extremely clean. The bathroom was a nice size, also extremely clean. The bathtub/shower was wonderful and included a dispenser for shampoo and conditioner and a hair blower.  We loved the size of the Inn--not too big, so we could quickly get to the lobby, the small gym or the indoor/outdoor pool. It was wonderful and convenient to have access to the free breakfast buffet which included scrambled eggs, bagels, cereal, oatmeal, muffins, orange, juices, coffee/tea. Easy access to highway, and the wonderful Town Center and mall are a 10 minute drive. The only downside which I could think of was the bed, which was pretty uncomfortable if you are not used to a soft mattress. The hotel would be wise to replace the mattresses and pillows, which were soft and lumpy. Our friends also had the same complaint. New mattresses, and this hotel gets 5 stars!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r118633224-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>118633224</t>
+  </si>
+  <si>
+    <t>09/26/2011</t>
+  </si>
+  <si>
+    <t>Great deal on rooms,,</t>
+  </si>
+  <si>
+    <t>You cant beat the price for a nice suite, the rooms have bedroom and living room with 2 tv's. all for under $130. Great location with a great restaurant right next door. The hotel does have a pretty good breakfast buffet and snacks at dinner time, you also get 3 mix drinks or beer from around 5pm to 7 pm. Now the only downside i could see was housekeeping was the pits,,they came in and left new towels and made the bed but did not clean the room. we had a some left over plates from breakfast and empty coffee cups laying around and they were still there, counters in the bath room were not wipe and bathroom floors not mopped.BUT for the price of the room and size, i will clean up my own mess. I will stay there again if the chance comes up.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>You cant beat the price for a nice suite, the rooms have bedroom and living room with 2 tv's. all for under $130. Great location with a great restaurant right next door. The hotel does have a pretty good breakfast buffet and snacks at dinner time, you also get 3 mix drinks or beer from around 5pm to 7 pm. Now the only downside i could see was housekeeping was the pits,,they came in and left new towels and made the bed but did not clean the room. we had a some left over plates from breakfast and empty coffee cups laying around and they were still there, counters in the bath room were not wipe and bathroom floors not mopped.BUT for the price of the room and size, i will clean up my own mess. I will stay there again if the chance comes up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r59772333-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>59772333</t>
+  </si>
+  <si>
+    <t>03/28/2010</t>
+  </si>
+  <si>
+    <t>Home away from home (IL)</t>
+  </si>
+  <si>
+    <t>Stayed here 5 nights during first week of March 2010 during Houston Rodeo at Reliant Center.  Anyhow, this was our first trip to Texas.  Staying at the Drury Inn in Sugar Land, TX (located southwest of Houston) felt like home away from home.  The front desk people were friendly and prompt.  The room/maid service was attentive.  The facility was clean.  The neighborhood was safe and secure.  Although, close to US 59 (Southwest Freeway), our room was quiet.  Breakfast and evening Kickbacks were delicious.  Overall, a great place to stay while touring the Houston area.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r58266667-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>58266667</t>
+  </si>
+  <si>
+    <t>03/10/2010</t>
+  </si>
+  <si>
+    <t>An Outstanding Hotel!</t>
+  </si>
+  <si>
+    <t>This was the best hotel of our cross country trip! We had an outstanding stay here. The whole property was very nice. The breakfast and evening kickback was wonderful. They have a business center and a nice heated pool/jaccuzzi to relax in at night. The room was nice and clean. I extended our stay a couple of nights and the hotel was very easy to work with.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r53405807-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>53405807</t>
+  </si>
+  <si>
+    <t>01/13/2010</t>
+  </si>
+  <si>
+    <t>Reviewers need to revisit</t>
+  </si>
+  <si>
+    <t>Our family had two rooms for two nights at this hotel on the recommendation of Tripadvisor and our family in Houston.  We were very unhappy.  The rooms are very small.  The bed and beddings were poor quality and the hotel smelled like chlorine from the swimming pool.  The only provision in the bathroom was soap and a very poor quality shampoo - no lotion, shower caps, etc.  The wash cloths and towels were very thin and very rough.  The breakfast was adequate but they provided only one newspaper for the entire breakfast room (most hotels provide for all rooms).  When I ask at the desk if they had another paper I was told I could buy one at the stand around the corner.  We did buy one and it turned out to be a Houston Chronicle rather than the USA Today we were looking for.  I had planned to stay at the Holiday Inn Express just down the street but followed the usually excellent advise on TripAdvisor.  Next time I'll try the Holiday Inn Express.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>KimChappell, eMarketing Specialist at Drury Inn &amp; Suites Houston Sugar Land, responded to this reviewResponded January 19, 2010</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2010</t>
+  </si>
+  <si>
+    <t>Our family had two rooms for two nights at this hotel on the recommendation of Tripadvisor and our family in Houston.  We were very unhappy.  The rooms are very small.  The bed and beddings were poor quality and the hotel smelled like chlorine from the swimming pool.  The only provision in the bathroom was soap and a very poor quality shampoo - no lotion, shower caps, etc.  The wash cloths and towels were very thin and very rough.  The breakfast was adequate but they provided only one newspaper for the entire breakfast room (most hotels provide for all rooms).  When I ask at the desk if they had another paper I was told I could buy one at the stand around the corner.  We did buy one and it turned out to be a Houston Chronicle rather than the USA Today we were looking for.  I had planned to stay at the Holiday Inn Express just down the street but followed the usually excellent advise on TripAdvisor.  Next time I'll try the Holiday Inn Express.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r35998272-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>35998272</t>
+  </si>
+  <si>
+    <t>07/27/2009</t>
+  </si>
+  <si>
+    <t>Great Workers, Nice Hotel</t>
+  </si>
+  <si>
+    <t>The workers were fantastic. They went out of their way each day of my stay to make me feel comfortable. My family loved the hot start breakfast, and we put the free long distance to good use. The hotel is located in a good part of town, and the parking lot is gated. This hotel is definitely a better alternative if you dont want to stay around the Houston downtown area. The problems- The pool is WAY too cold. For it being for hot outside, you'd think their indoor/outdoor pool would be warmer. Also, the hotel does show its age. With a few decorative upgrades and perhaps 2 queen beds instead of full beds..this hotel could be even better. Overall, a great hotel with good soundproofing. I heard no other guests. The new flat screen tvs were nice too.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>The workers were fantastic. They went out of their way each day of my stay to make me feel comfortable. My family loved the hot start breakfast, and we put the free long distance to good use. The hotel is located in a good part of town, and the parking lot is gated. This hotel is definitely a better alternative if you dont want to stay around the Houston downtown area. The problems- The pool is WAY too cold. For it being for hot outside, you'd think their indoor/outdoor pool would be warmer. Also, the hotel does show its age. With a few decorative upgrades and perhaps 2 queen beds instead of full beds..this hotel could be even better. Overall, a great hotel with good soundproofing. I heard no other guests. The new flat screen tvs were nice too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r30891350-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>30891350</t>
+  </si>
+  <si>
+    <t>05/27/2009</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, but a little worn.  Decent breakfast.  Free happy hour.  Gym is horrible.  Really nice people.</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r23060193-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>23060193</t>
+  </si>
+  <si>
+    <t>12/28/2008</t>
+  </si>
+  <si>
+    <t>Best Value in Sugar Land!</t>
+  </si>
+  <si>
+    <t>If you have business or family in the Sugar Land, TX area, there are not many good local hotel options.  However, the Drury hotel is a very good value and the property is very well maintained.  You will not be disappointed!  I booked on the Drury website for their esaver on-line rate.Free high speed wi-fi, breakfast and parking, with a "minimal" work out room, available computer / printer, and a nice indoor/outdoor pool with jacuzzi.  The room was very clean, good size and had a nice 37" flat screen tv.  The free breakfast is not very spectacular.  I stayed for several days during the holiday season and only had the free breakfast twice.  The powdered eggs are not good at all, but the fresh diy waffles were great!The staff was very professional and courteous.  They make the hotel a very comfortable stay.As an alternative, the best hotel in Sugar Land is the Marriott Town Center, but in my opinion it is way overpriced and not worth the rates they charge -- especially compared to the great value at Drury!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>If you have business or family in the Sugar Land, TX area, there are not many good local hotel options.  However, the Drury hotel is a very good value and the property is very well maintained.  You will not be disappointed!  I booked on the Drury website for their esaver on-line rate.Free high speed wi-fi, breakfast and parking, with a "minimal" work out room, available computer / printer, and a nice indoor/outdoor pool with jacuzzi.  The room was very clean, good size and had a nice 37" flat screen tv.  The free breakfast is not very spectacular.  I stayed for several days during the holiday season and only had the free breakfast twice.  The powdered eggs are not good at all, but the fresh diy waffles were great!The staff was very professional and courteous.  They make the hotel a very comfortable stay.As an alternative, the best hotel in Sugar Land is the Marriott Town Center, but in my opinion it is way overpriced and not worth the rates they charge -- especially compared to the great value at Drury!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r11516379-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>11516379</t>
+  </si>
+  <si>
+    <t>12/12/2007</t>
+  </si>
+  <si>
+    <t>Best hotel - free drinks/long distance and great pool</t>
+  </si>
+  <si>
+    <t>We usually stay at the Marriott Courtyard in Sugar Land but this time we decided to save a little money and try the Drury Inn. It was great. The room is very clean and nice. We get 3 drinks per person per night from 5:30 - 9:00 this includes beer, wine, margarittas, etc. They also have sodas and juice. They have a great hot breakfast. The pool is half outside and half inn. It is heated and felt great even in December. You get 1 hour of long distance a night in the US and you can call other countries but the time is less than an hour. They also have a computer that you can use and a printer for free. If you have your own computer they have free wireless internet. Great hotel will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>We usually stay at the Marriott Courtyard in Sugar Land but this time we decided to save a little money and try the Drury Inn. It was great. The room is very clean and nice. We get 3 drinks per person per night from 5:30 - 9:00 this includes beer, wine, margarittas, etc. They also have sodas and juice. They have a great hot breakfast. The pool is half outside and half inn. It is heated and felt great even in December. You get 1 hour of long distance a night in the US and you can call other countries but the time is less than an hour. They also have a computer that you can use and a printer for free. If you have your own computer they have free wireless internet. Great hotel will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r8454105-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>8454105</t>
+  </si>
+  <si>
+    <t>08/18/2007</t>
+  </si>
+  <si>
+    <t>An Excellent Place To Stay !!</t>
+  </si>
+  <si>
+    <t>I spent one night at this Drury hotel, while on a business trip to Houston.  I couldn't have been more pleased.  Everything was in new condition, and the furnishings and decor were upscale.  There was a Refrigerator and a microwave in the room.  And they were neatly stored away out of sight  in an attractive cabinet with a door.  - -  Overall, just an excellent hotel at a very reasonable price!!!</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d106320-r8357473-Drury_Inn_Suites_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>8357473</t>
+  </si>
+  <si>
+    <t>08/04/2007</t>
+  </si>
+  <si>
+    <t>Would return to this hotel</t>
+  </si>
+  <si>
+    <t>I agree that this hotel was a good value.  The rooms were clean and  quiet.  The staff was pleasant.  The breakfast was better than the breakfast at most other hotels.  The wireless internet worked great and it was helpful to have a washer/dryer available for my clothes.  I would return again.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2349,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2381,6346 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>133</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>132</v>
+      </c>
+      <c r="O17" t="s">
+        <v>133</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" t="s">
+        <v>141</v>
+      </c>
+      <c r="K18" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>132</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" t="s">
+        <v>157</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>158</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" t="s">
+        <v>164</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>158</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>166</v>
+      </c>
+      <c r="J22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K22" t="s">
+        <v>168</v>
+      </c>
+      <c r="L22" t="s">
+        <v>169</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>170</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" t="s">
+        <v>174</v>
+      </c>
+      <c r="L23" t="s">
+        <v>175</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>176</v>
+      </c>
+      <c r="O23" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>177</v>
+      </c>
+      <c r="X23" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>181</v>
+      </c>
+      <c r="J24" t="s">
+        <v>182</v>
+      </c>
+      <c r="K24" t="s">
+        <v>183</v>
+      </c>
+      <c r="L24" t="s">
+        <v>184</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>176</v>
+      </c>
+      <c r="O24" t="s">
+        <v>185</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>187</v>
+      </c>
+      <c r="J25" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" t="s">
+        <v>190</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>170</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J26" t="s">
+        <v>194</v>
+      </c>
+      <c r="K26" t="s">
+        <v>195</v>
+      </c>
+      <c r="L26" t="s">
+        <v>196</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>170</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>199</v>
+      </c>
+      <c r="J27" t="s">
+        <v>200</v>
+      </c>
+      <c r="K27" t="s">
+        <v>201</v>
+      </c>
+      <c r="L27" t="s">
+        <v>202</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>203</v>
+      </c>
+      <c r="O27" t="s">
+        <v>133</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>205</v>
+      </c>
+      <c r="J28" t="s">
+        <v>206</v>
+      </c>
+      <c r="K28" t="s">
+        <v>207</v>
+      </c>
+      <c r="L28" t="s">
+        <v>208</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>209</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>210</v>
+      </c>
+      <c r="X28" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>214</v>
+      </c>
+      <c r="J29" t="s">
+        <v>215</v>
+      </c>
+      <c r="K29" t="s">
+        <v>216</v>
+      </c>
+      <c r="L29" t="s">
+        <v>217</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>218</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>220</v>
+      </c>
+      <c r="J30" t="s">
+        <v>221</v>
+      </c>
+      <c r="K30" t="s">
+        <v>222</v>
+      </c>
+      <c r="L30" t="s">
+        <v>223</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>224</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>226</v>
+      </c>
+      <c r="J31" t="s">
+        <v>227</v>
+      </c>
+      <c r="K31" t="s">
+        <v>228</v>
+      </c>
+      <c r="L31" t="s">
+        <v>229</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>230</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>233</v>
+      </c>
+      <c r="J32" t="s">
+        <v>234</v>
+      </c>
+      <c r="K32" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" t="s">
+        <v>236</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>237</v>
+      </c>
+      <c r="O32" t="s">
+        <v>133</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>239</v>
+      </c>
+      <c r="J33" t="s">
+        <v>240</v>
+      </c>
+      <c r="K33" t="s">
+        <v>241</v>
+      </c>
+      <c r="L33" t="s">
+        <v>242</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>237</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>245</v>
+      </c>
+      <c r="J34" t="s">
+        <v>246</v>
+      </c>
+      <c r="K34" t="s">
+        <v>247</v>
+      </c>
+      <c r="L34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>249</v>
+      </c>
+      <c r="O34" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>251</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>252</v>
+      </c>
+      <c r="J35" t="s">
+        <v>253</v>
+      </c>
+      <c r="K35" t="s">
+        <v>254</v>
+      </c>
+      <c r="L35" t="s">
+        <v>255</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>237</v>
+      </c>
+      <c r="O35" t="s">
+        <v>133</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>256</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>257</v>
+      </c>
+      <c r="J36" t="s">
+        <v>253</v>
+      </c>
+      <c r="K36" t="s">
+        <v>258</v>
+      </c>
+      <c r="L36" t="s">
+        <v>259</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>260</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>262</v>
+      </c>
+      <c r="J37" t="s">
+        <v>263</v>
+      </c>
+      <c r="K37" t="s">
+        <v>264</v>
+      </c>
+      <c r="L37" t="s">
+        <v>265</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>260</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>267</v>
+      </c>
+      <c r="J38" t="s">
+        <v>268</v>
+      </c>
+      <c r="K38" t="s">
+        <v>269</v>
+      </c>
+      <c r="L38" t="s">
+        <v>270</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>271</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>272</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>273</v>
+      </c>
+      <c r="J39" t="s">
+        <v>274</v>
+      </c>
+      <c r="K39" t="s">
+        <v>275</v>
+      </c>
+      <c r="L39" t="s">
+        <v>276</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>249</v>
+      </c>
+      <c r="O39" t="s">
+        <v>133</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>278</v>
+      </c>
+      <c r="J40" t="s">
+        <v>279</v>
+      </c>
+      <c r="K40" t="s">
+        <v>280</v>
+      </c>
+      <c r="L40" t="s">
+        <v>281</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>282</v>
+      </c>
+      <c r="O40" t="s">
+        <v>133</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>283</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>284</v>
+      </c>
+      <c r="J41" t="s">
+        <v>285</v>
+      </c>
+      <c r="K41" t="s">
+        <v>286</v>
+      </c>
+      <c r="L41" t="s">
+        <v>287</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>288</v>
+      </c>
+      <c r="O41" t="s">
+        <v>133</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>289</v>
+      </c>
+      <c r="X41" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>292</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>293</v>
+      </c>
+      <c r="J42" t="s">
+        <v>294</v>
+      </c>
+      <c r="K42" t="s">
+        <v>295</v>
+      </c>
+      <c r="L42" t="s">
+        <v>296</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>288</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>297</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>298</v>
+      </c>
+      <c r="J43" t="s">
+        <v>299</v>
+      </c>
+      <c r="K43" t="s">
+        <v>300</v>
+      </c>
+      <c r="L43" t="s">
+        <v>301</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>288</v>
+      </c>
+      <c r="O43" t="s">
+        <v>133</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>302</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>303</v>
+      </c>
+      <c r="J44" t="s">
+        <v>304</v>
+      </c>
+      <c r="K44" t="s">
+        <v>305</v>
+      </c>
+      <c r="L44" t="s">
+        <v>306</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>307</v>
+      </c>
+      <c r="O44" t="s">
+        <v>133</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>308</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>309</v>
+      </c>
+      <c r="J45" t="s">
+        <v>310</v>
+      </c>
+      <c r="K45" t="s">
+        <v>311</v>
+      </c>
+      <c r="L45" t="s">
+        <v>312</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>307</v>
+      </c>
+      <c r="O45" t="s">
+        <v>133</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>313</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>314</v>
+      </c>
+      <c r="J46" t="s">
+        <v>315</v>
+      </c>
+      <c r="K46" t="s">
+        <v>316</v>
+      </c>
+      <c r="L46" t="s">
+        <v>317</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>307</v>
+      </c>
+      <c r="O46" t="s">
+        <v>133</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>318</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>319</v>
+      </c>
+      <c r="J47" t="s">
+        <v>320</v>
+      </c>
+      <c r="K47" t="s">
+        <v>321</v>
+      </c>
+      <c r="L47" t="s">
+        <v>322</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>323</v>
+      </c>
+      <c r="O47" t="s">
+        <v>133</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>325</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>326</v>
+      </c>
+      <c r="J48" t="s">
+        <v>327</v>
+      </c>
+      <c r="K48" t="s">
+        <v>328</v>
+      </c>
+      <c r="L48" t="s">
+        <v>329</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>323</v>
+      </c>
+      <c r="O48" t="s">
+        <v>133</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>331</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>332</v>
+      </c>
+      <c r="J49" t="s">
+        <v>333</v>
+      </c>
+      <c r="K49" t="s">
+        <v>334</v>
+      </c>
+      <c r="L49" t="s">
+        <v>335</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>336</v>
+      </c>
+      <c r="O49" t="s">
+        <v>185</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>337</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>338</v>
+      </c>
+      <c r="J50" t="s">
+        <v>339</v>
+      </c>
+      <c r="K50" t="s">
+        <v>340</v>
+      </c>
+      <c r="L50" t="s">
+        <v>341</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>342</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>343</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>344</v>
+      </c>
+      <c r="J51" t="s">
+        <v>345</v>
+      </c>
+      <c r="K51" t="s">
+        <v>346</v>
+      </c>
+      <c r="L51" t="s">
+        <v>347</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>342</v>
+      </c>
+      <c r="O51" t="s">
+        <v>133</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>348</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>349</v>
+      </c>
+      <c r="J52" t="s">
+        <v>345</v>
+      </c>
+      <c r="K52" t="s">
+        <v>350</v>
+      </c>
+      <c r="L52" t="s">
+        <v>351</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>342</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>353</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>354</v>
+      </c>
+      <c r="J53" t="s">
+        <v>355</v>
+      </c>
+      <c r="K53" t="s">
+        <v>356</v>
+      </c>
+      <c r="L53" t="s">
+        <v>357</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>358</v>
+      </c>
+      <c r="O53" t="s">
+        <v>133</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>359</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>360</v>
+      </c>
+      <c r="J54" t="s">
+        <v>361</v>
+      </c>
+      <c r="K54" t="s">
+        <v>362</v>
+      </c>
+      <c r="L54" t="s">
+        <v>363</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>364</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>365</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>366</v>
+      </c>
+      <c r="J55" t="s">
+        <v>367</v>
+      </c>
+      <c r="K55" t="s">
+        <v>368</v>
+      </c>
+      <c r="L55" t="s">
+        <v>369</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>364</v>
+      </c>
+      <c r="O55" t="s">
+        <v>133</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>370</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>371</v>
+      </c>
+      <c r="J56" t="s">
+        <v>372</v>
+      </c>
+      <c r="K56" t="s">
+        <v>373</v>
+      </c>
+      <c r="L56" t="s">
+        <v>374</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>364</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>375</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>376</v>
+      </c>
+      <c r="J57" t="s">
+        <v>377</v>
+      </c>
+      <c r="K57" t="s">
+        <v>378</v>
+      </c>
+      <c r="L57" t="s">
+        <v>379</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>380</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>381</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>382</v>
+      </c>
+      <c r="J58" t="s">
+        <v>383</v>
+      </c>
+      <c r="K58" t="s">
+        <v>384</v>
+      </c>
+      <c r="L58" t="s">
+        <v>385</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>380</v>
+      </c>
+      <c r="O58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>387</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>388</v>
+      </c>
+      <c r="J59" t="s">
+        <v>389</v>
+      </c>
+      <c r="K59" t="s">
+        <v>390</v>
+      </c>
+      <c r="L59" t="s">
+        <v>391</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>392</v>
+      </c>
+      <c r="O59" t="s">
+        <v>71</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>393</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>394</v>
+      </c>
+      <c r="J60" t="s">
+        <v>395</v>
+      </c>
+      <c r="K60" t="s">
+        <v>396</v>
+      </c>
+      <c r="L60" t="s">
+        <v>397</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>392</v>
+      </c>
+      <c r="O60" t="s">
+        <v>133</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>399</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>400</v>
+      </c>
+      <c r="J61" t="s">
+        <v>401</v>
+      </c>
+      <c r="K61" t="s">
+        <v>402</v>
+      </c>
+      <c r="L61" t="s">
+        <v>403</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>404</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>405</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>406</v>
+      </c>
+      <c r="J62" t="s">
+        <v>407</v>
+      </c>
+      <c r="K62" t="s">
+        <v>408</v>
+      </c>
+      <c r="L62" t="s">
+        <v>409</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>404</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>410</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>411</v>
+      </c>
+      <c r="J63" t="s">
+        <v>412</v>
+      </c>
+      <c r="K63" t="s">
+        <v>413</v>
+      </c>
+      <c r="L63" t="s">
+        <v>414</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>415</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>417</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>418</v>
+      </c>
+      <c r="J64" t="s">
+        <v>419</v>
+      </c>
+      <c r="K64" t="s">
+        <v>420</v>
+      </c>
+      <c r="L64" t="s">
+        <v>421</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>404</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>422</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>423</v>
+      </c>
+      <c r="J65" t="s">
+        <v>424</v>
+      </c>
+      <c r="K65" t="s">
+        <v>425</v>
+      </c>
+      <c r="L65" t="s">
+        <v>426</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>415</v>
+      </c>
+      <c r="O65" t="s">
+        <v>60</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>427</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>428</v>
+      </c>
+      <c r="J66" t="s">
+        <v>429</v>
+      </c>
+      <c r="K66" t="s">
+        <v>430</v>
+      </c>
+      <c r="L66" t="s">
+        <v>431</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>432</v>
+      </c>
+      <c r="O66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>434</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>435</v>
+      </c>
+      <c r="J67" t="s">
+        <v>436</v>
+      </c>
+      <c r="K67" t="s">
+        <v>437</v>
+      </c>
+      <c r="L67" t="s">
+        <v>438</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>336</v>
+      </c>
+      <c r="O67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>440</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>441</v>
+      </c>
+      <c r="J68" t="s">
+        <v>442</v>
+      </c>
+      <c r="K68" t="s">
+        <v>443</v>
+      </c>
+      <c r="L68" t="s">
+        <v>444</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>445</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>446</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>447</v>
+      </c>
+      <c r="J69" t="s">
+        <v>448</v>
+      </c>
+      <c r="K69" t="s">
+        <v>449</v>
+      </c>
+      <c r="L69" t="s">
+        <v>450</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>451</v>
+      </c>
+      <c r="O69" t="s">
+        <v>133</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>452</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>453</v>
+      </c>
+      <c r="J70" t="s">
+        <v>454</v>
+      </c>
+      <c r="K70" t="s">
+        <v>455</v>
+      </c>
+      <c r="L70" t="s">
+        <v>456</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>451</v>
+      </c>
+      <c r="O70" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>457</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>458</v>
+      </c>
+      <c r="J71" t="s">
+        <v>459</v>
+      </c>
+      <c r="K71" t="s">
+        <v>460</v>
+      </c>
+      <c r="L71" t="s">
+        <v>461</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>432</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>462</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>463</v>
+      </c>
+      <c r="J72" t="s">
+        <v>464</v>
+      </c>
+      <c r="K72" t="s">
+        <v>465</v>
+      </c>
+      <c r="L72" t="s">
+        <v>466</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>467</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>468</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>469</v>
+      </c>
+      <c r="J73" t="s">
+        <v>470</v>
+      </c>
+      <c r="K73" t="s">
+        <v>471</v>
+      </c>
+      <c r="L73" t="s">
+        <v>472</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>473</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>474</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>475</v>
+      </c>
+      <c r="J74" t="s">
+        <v>476</v>
+      </c>
+      <c r="K74" t="s">
+        <v>477</v>
+      </c>
+      <c r="L74" t="s">
+        <v>478</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>479</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>480</v>
+      </c>
+      <c r="J75" t="s">
+        <v>481</v>
+      </c>
+      <c r="K75" t="s">
+        <v>482</v>
+      </c>
+      <c r="L75" t="s">
+        <v>483</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>484</v>
+      </c>
+      <c r="O75" t="s">
+        <v>133</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>485</v>
+      </c>
+      <c r="X75" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>488</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>489</v>
+      </c>
+      <c r="J76" t="s">
+        <v>490</v>
+      </c>
+      <c r="K76" t="s">
+        <v>491</v>
+      </c>
+      <c r="L76" t="s">
+        <v>492</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>493</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>494</v>
+      </c>
+      <c r="J77" t="s">
+        <v>495</v>
+      </c>
+      <c r="K77" t="s">
+        <v>496</v>
+      </c>
+      <c r="L77" t="s">
+        <v>497</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>498</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>499</v>
+      </c>
+      <c r="J78" t="s">
+        <v>500</v>
+      </c>
+      <c r="K78" t="s">
+        <v>501</v>
+      </c>
+      <c r="L78" t="s">
+        <v>502</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>503</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>504</v>
+      </c>
+      <c r="J79" t="s">
+        <v>505</v>
+      </c>
+      <c r="K79" t="s">
+        <v>506</v>
+      </c>
+      <c r="L79" t="s">
+        <v>507</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>508</v>
+      </c>
+      <c r="O79" t="s">
+        <v>133</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>509</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>510</v>
+      </c>
+      <c r="J80" t="s">
+        <v>511</v>
+      </c>
+      <c r="K80" t="s">
+        <v>512</v>
+      </c>
+      <c r="L80" t="s">
+        <v>513</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>514</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>515</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>516</v>
+      </c>
+      <c r="J81" t="s">
+        <v>517</v>
+      </c>
+      <c r="K81" t="s">
+        <v>518</v>
+      </c>
+      <c r="L81" t="s">
+        <v>519</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>514</v>
+      </c>
+      <c r="O81" t="s">
+        <v>71</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>521</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>522</v>
+      </c>
+      <c r="J82" t="s">
+        <v>523</v>
+      </c>
+      <c r="K82" t="s">
+        <v>524</v>
+      </c>
+      <c r="L82" t="s">
+        <v>525</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>514</v>
+      </c>
+      <c r="O82" t="s">
+        <v>133</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>526</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>527</v>
+      </c>
+      <c r="J83" t="s">
+        <v>528</v>
+      </c>
+      <c r="K83" t="s">
+        <v>529</v>
+      </c>
+      <c r="L83" t="s">
+        <v>530</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>531</v>
+      </c>
+      <c r="O83" t="s">
+        <v>60</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>533</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>534</v>
+      </c>
+      <c r="J84" t="s">
+        <v>535</v>
+      </c>
+      <c r="K84" t="s">
+        <v>536</v>
+      </c>
+      <c r="L84" t="s">
+        <v>537</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>538</v>
+      </c>
+      <c r="O84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>540</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>541</v>
+      </c>
+      <c r="J85" t="s">
+        <v>542</v>
+      </c>
+      <c r="K85" t="s">
+        <v>543</v>
+      </c>
+      <c r="L85" t="s">
+        <v>544</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>545</v>
+      </c>
+      <c r="O85" t="s">
+        <v>133</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>547</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>548</v>
+      </c>
+      <c r="J86" t="s">
+        <v>549</v>
+      </c>
+      <c r="K86" t="s">
+        <v>550</v>
+      </c>
+      <c r="L86" t="s">
+        <v>551</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>552</v>
+      </c>
+      <c r="O86" t="s">
+        <v>185</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>553</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>554</v>
+      </c>
+      <c r="J87" t="s">
+        <v>555</v>
+      </c>
+      <c r="K87" t="s">
+        <v>11</v>
+      </c>
+      <c r="L87" t="s">
+        <v>556</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>552</v>
+      </c>
+      <c r="O87" t="s">
+        <v>71</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>557</v>
+      </c>
+      <c r="X87" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>560</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>561</v>
+      </c>
+      <c r="J88" t="s">
+        <v>562</v>
+      </c>
+      <c r="K88" t="s">
+        <v>563</v>
+      </c>
+      <c r="L88" t="s">
+        <v>564</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>552</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>565</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>566</v>
+      </c>
+      <c r="J89" t="s">
+        <v>567</v>
+      </c>
+      <c r="K89" t="s">
+        <v>568</v>
+      </c>
+      <c r="L89" t="s">
+        <v>569</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>570</v>
+      </c>
+      <c r="O89" t="s">
+        <v>60</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>572</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>573</v>
+      </c>
+      <c r="J90" t="s">
+        <v>574</v>
+      </c>
+      <c r="K90" t="s">
+        <v>575</v>
+      </c>
+      <c r="L90" t="s">
+        <v>576</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>577</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>579</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>580</v>
+      </c>
+      <c r="J91" t="s">
+        <v>581</v>
+      </c>
+      <c r="K91" t="s">
+        <v>582</v>
+      </c>
+      <c r="L91" t="s">
+        <v>583</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>584</v>
+      </c>
+      <c r="O91" t="s">
+        <v>60</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>586</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>587</v>
+      </c>
+      <c r="J92" t="s">
+        <v>588</v>
+      </c>
+      <c r="K92" t="s">
+        <v>589</v>
+      </c>
+      <c r="L92" t="s">
+        <v>590</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>591</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>592</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>593</v>
+      </c>
+      <c r="J93" t="s">
+        <v>594</v>
+      </c>
+      <c r="K93" t="s">
+        <v>595</v>
+      </c>
+      <c r="L93" t="s">
+        <v>596</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>591</v>
+      </c>
+      <c r="O93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>597</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>598</v>
+      </c>
+      <c r="J94" t="s">
+        <v>599</v>
+      </c>
+      <c r="K94" t="s">
+        <v>600</v>
+      </c>
+      <c r="L94" t="s">
+        <v>601</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>602</v>
+      </c>
+      <c r="O94" t="s">
+        <v>60</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>2</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>603</v>
+      </c>
+      <c r="X94" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>606</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>607</v>
+      </c>
+      <c r="J95" t="s">
+        <v>608</v>
+      </c>
+      <c r="K95" t="s">
+        <v>609</v>
+      </c>
+      <c r="L95" t="s">
+        <v>610</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>611</v>
+      </c>
+      <c r="O95" t="s">
+        <v>60</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>613</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>614</v>
+      </c>
+      <c r="J96" t="s">
+        <v>615</v>
+      </c>
+      <c r="K96" t="s">
+        <v>616</v>
+      </c>
+      <c r="L96" t="s">
+        <v>617</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>618</v>
+      </c>
+      <c r="O96" t="s">
+        <v>133</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>2</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>3</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>619</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>620</v>
+      </c>
+      <c r="J97" t="s">
+        <v>621</v>
+      </c>
+      <c r="K97" t="s">
+        <v>622</v>
+      </c>
+      <c r="L97" t="s">
+        <v>623</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>624</v>
+      </c>
+      <c r="O97" t="s">
+        <v>71</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>626</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>627</v>
+      </c>
+      <c r="J98" t="s">
+        <v>628</v>
+      </c>
+      <c r="K98" t="s">
+        <v>629</v>
+      </c>
+      <c r="L98" t="s">
+        <v>630</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>631</v>
+      </c>
+      <c r="O98" t="s">
+        <v>133</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>633</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>634</v>
+      </c>
+      <c r="J99" t="s">
+        <v>635</v>
+      </c>
+      <c r="K99" t="s">
+        <v>636</v>
+      </c>
+      <c r="L99" t="s">
+        <v>637</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>638</v>
+      </c>
+      <c r="O99" t="s">
+        <v>133</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="s"/>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>34427</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>639</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>640</v>
+      </c>
+      <c r="J100" t="s">
+        <v>641</v>
+      </c>
+      <c r="K100" t="s">
+        <v>642</v>
+      </c>
+      <c r="L100" t="s">
+        <v>643</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>643</v>
       </c>
     </row>
   </sheetData>
